--- a/Arlington-vs-ISO32K-Tables.xlsx
+++ b/Arlington-vs-ISO32K-Tables.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\share\arlington-pdf-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6668CE44-5F91-4934-8FEC-F3ACE353CA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B343535C-42CF-4995-A422-893C8C1C9BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arlington vs ISO 32000-2 Tables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1372,9 +1385,6 @@
     <t>ISO 32000-2:2020 Table and caption</t>
   </si>
   <si>
-    <t>of all Tables encoded into Arlington PDF Model</t>
-  </si>
-  <si>
     <t>Ticked</t>
   </si>
   <si>
@@ -1393,9 +1403,6 @@
     <t>Table content deleted in ISO 32000-2:2020</t>
   </si>
   <si>
-    <t>Difficult to encode into Arlington???</t>
-  </si>
-  <si>
     <t>TBD??</t>
   </si>
   <si>
@@ -1415,15 +1422,21 @@
   </si>
   <si>
     <t>Semantic processing of specific strings</t>
+  </si>
+  <si>
+    <t>of all Tables in ISO 32000-2:2020 are encoded into Arlington PDF Model</t>
+  </si>
+  <si>
+    <t>TBD - difficult to encode into Arlington???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1953,40 +1966,45 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -2343,18 +2361,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C402" sqref="C402"/>
+      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C444" sqref="C444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.84375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="6.84375" style="6" customWidth="1"/>
     <col min="3" max="3" width="100.23046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.765625" customWidth="1"/>
   </cols>
@@ -2363,71 +2381,71 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="1" t="s">
         <v>449</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
         <f>SEARCH(A2,C2)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10">
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9">
         <f t="shared" ref="B3:B66" si="0">SEARCH(A3,C3)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10">
+      <c r="D3" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10">
+      <c r="D4" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>461</v>
+      <c r="D5" s="10" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2439,7 +2457,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2447,24 +2465,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10">
+    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>453</v>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2472,16 +2490,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10">
+    <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>444</v>
       </c>
     </row>
@@ -2489,7 +2507,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2501,7 +2519,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2513,7 +2531,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2525,7 +2543,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2537,7 +2555,7 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2549,7 +2567,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2561,7 +2579,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2573,7 +2591,7 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2581,24 +2599,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10">
+    <row r="19" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>462</v>
+      <c r="D19" s="10" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2610,7 +2628,7 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2622,7 +2640,7 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <f>SEARCH(A22,C22)</f>
         <v>7</v>
       </c>
@@ -2634,7 +2652,7 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2646,7 +2664,7 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2658,7 +2676,7 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2670,7 +2688,7 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2682,7 +2700,7 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2694,7 +2712,7 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2706,7 +2724,7 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2718,7 +2736,7 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2730,7 +2748,7 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2742,7 +2760,7 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2754,7 +2772,7 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2762,16 +2780,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10">
+    <row r="34" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>439</v>
       </c>
     </row>
@@ -2779,7 +2797,7 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2787,42 +2805,42 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10">
+    <row r="36" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10">
+    <row r="37" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10">
+    <row r="38" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>438</v>
       </c>
     </row>
@@ -2830,7 +2848,7 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2842,7 +2860,7 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <f>SEARCH(A40,C40)</f>
         <v>7</v>
       </c>
@@ -2854,7 +2872,7 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2866,7 +2884,7 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2874,24 +2892,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10">
+    <row r="43" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>454</v>
+      <c r="D43" s="10" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2903,7 +2921,7 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2915,7 +2933,7 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2927,7 +2945,7 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2939,7 +2957,7 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2951,7 +2969,7 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2963,7 +2981,7 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2971,42 +2989,42 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10">
+    <row r="51" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10">
+    <row r="52" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10">
+    <row r="53" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>443</v>
       </c>
     </row>
@@ -3014,7 +3032,7 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3026,7 +3044,7 @@
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3038,7 +3056,7 @@
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3046,16 +3064,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10">
+    <row r="57" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3063,7 +3081,7 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3071,55 +3089,55 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10">
+    <row r="59" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10">
+    <row r="60" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10">
+    <row r="61" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10">
+    <row r="62" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>443</v>
       </c>
     </row>
@@ -3127,7 +3145,7 @@
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3139,7 +3157,7 @@
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3151,7 +3169,7 @@
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3163,7 +3181,7 @@
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3171,42 +3189,42 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10">
+    <row r="67" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9">
         <f t="shared" ref="B67:B130" si="1">SEARCH(A67,C67)</f>
         <v>1</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10">
+    <row r="68" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10">
+    <row r="69" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>440</v>
       </c>
     </row>
@@ -3214,7 +3232,7 @@
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3226,7 +3244,7 @@
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3238,7 +3256,7 @@
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3250,7 +3268,7 @@
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3258,16 +3276,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10">
+    <row r="74" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3275,7 +3293,7 @@
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3287,7 +3305,7 @@
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3295,16 +3313,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10">
+    <row r="77" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="10" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3312,7 +3330,7 @@
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3324,7 +3342,7 @@
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3336,7 +3354,7 @@
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3348,7 +3366,7 @@
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3360,7 +3378,7 @@
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3372,7 +3390,7 @@
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3384,7 +3402,7 @@
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3392,42 +3410,42 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10">
+    <row r="85" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10">
+    <row r="86" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10">
+    <row r="87" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="10" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3435,7 +3453,7 @@
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3443,24 +3461,24 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="12"/>
-      <c r="B89" s="13">
+    <row r="89" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="11"/>
+      <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D89" s="15" t="s">
-        <v>457</v>
+      <c r="D89" s="14" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3468,42 +3486,42 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10">
+    <row r="91" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="8"/>
+      <c r="B91" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10">
+    <row r="92" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="8"/>
+      <c r="B92" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="9"/>
-      <c r="B93" s="10">
+    <row r="93" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="8"/>
+      <c r="B93" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="10" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3511,7 +3529,7 @@
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3523,7 +3541,7 @@
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3535,7 +3553,7 @@
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3547,7 +3565,7 @@
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3559,7 +3577,7 @@
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3571,7 +3589,7 @@
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3583,7 +3601,7 @@
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3595,7 +3613,7 @@
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3607,7 +3625,7 @@
       <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3615,94 +3633,94 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="9"/>
-      <c r="B103" s="10">
+    <row r="103" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="8"/>
+      <c r="B103" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10">
+    <row r="104" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="8"/>
+      <c r="B104" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10">
+    <row r="105" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="8"/>
+      <c r="B105" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="9"/>
-      <c r="B106" s="10">
+    <row r="106" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="8"/>
+      <c r="B106" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="9"/>
-      <c r="B107" s="10">
+    <row r="107" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="8"/>
+      <c r="B107" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="9"/>
-      <c r="B108" s="10">
+    <row r="108" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="8"/>
+      <c r="B108" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10">
+    <row r="109" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="8"/>
+      <c r="B109" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="10" t="s">
         <v>446</v>
       </c>
     </row>
@@ -3710,7 +3728,7 @@
       <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3722,7 +3740,7 @@
       <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3730,16 +3748,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="9"/>
-      <c r="B112" s="10">
+    <row r="112" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="8"/>
+      <c r="B112" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3747,7 +3765,7 @@
       <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3755,16 +3773,16 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="9"/>
-      <c r="B114" s="10">
+    <row r="114" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="8"/>
+      <c r="B114" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="10" t="s">
         <v>443</v>
       </c>
     </row>
@@ -3772,7 +3790,7 @@
       <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3784,7 +3802,7 @@
       <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3796,7 +3814,7 @@
       <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3804,24 +3822,24 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="9"/>
-      <c r="B118" s="10">
+    <row r="118" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="8"/>
+      <c r="B118" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>456</v>
+      <c r="D118" s="10" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3833,7 +3851,7 @@
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3845,7 +3863,7 @@
       <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3857,7 +3875,7 @@
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3869,7 +3887,7 @@
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3877,24 +3895,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="12"/>
-      <c r="B124" s="13">
+    <row r="124" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="11"/>
+      <c r="B124" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D124" s="15" t="s">
-        <v>458</v>
+      <c r="D124" s="14" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3906,7 +3924,7 @@
       <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3914,29 +3932,29 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="9"/>
-      <c r="B127" s="10">
+    <row r="127" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="8"/>
+      <c r="B127" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="9"/>
-      <c r="B128" s="10">
+    <row r="128" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="8"/>
+      <c r="B128" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="10" t="s">
         <v>446</v>
       </c>
     </row>
@@ -3944,7 +3962,7 @@
       <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3956,7 +3974,7 @@
       <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3968,7 +3986,7 @@
       <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="6">
         <f t="shared" ref="B131:B194" si="2">SEARCH(A131,C131)</f>
         <v>7</v>
       </c>
@@ -3980,7 +3998,7 @@
       <c r="A132" s="2">
         <v>131</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -3992,7 +4010,7 @@
       <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4000,16 +4018,16 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="9"/>
-      <c r="B134" s="10">
+    <row r="134" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="8"/>
+      <c r="B134" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="10" t="s">
         <v>443</v>
       </c>
     </row>
@@ -4017,7 +4035,7 @@
       <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4029,7 +4047,7 @@
       <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4037,81 +4055,81 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="9"/>
-      <c r="B137" s="10">
+    <row r="137" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="8"/>
+      <c r="B137" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D137" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="9"/>
-      <c r="B138" s="10">
+    <row r="138" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="8"/>
+      <c r="B138" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="9"/>
-      <c r="B139" s="10">
+    <row r="139" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="8"/>
+      <c r="B139" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="9"/>
-      <c r="B140" s="10">
+    <row r="140" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="8"/>
+      <c r="B140" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="9"/>
-      <c r="B141" s="10">
+    <row r="141" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="8"/>
+      <c r="B141" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C141" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="9"/>
-      <c r="B142" s="10">
+    <row r="142" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="8"/>
+      <c r="B142" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C142" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="10" t="s">
         <v>443</v>
       </c>
     </row>
@@ -4119,7 +4137,7 @@
       <c r="A143" s="2">
         <v>142</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4131,7 +4149,7 @@
       <c r="A144" s="2">
         <v>143</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4143,7 +4161,7 @@
       <c r="A145" s="2">
         <v>144</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4155,7 +4173,7 @@
       <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4163,16 +4181,16 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="9"/>
-      <c r="B147" s="10">
+    <row r="147" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="8"/>
+      <c r="B147" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="D147" s="10" t="s">
         <v>443</v>
       </c>
     </row>
@@ -4180,7 +4198,7 @@
       <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4192,7 +4210,7 @@
       <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B149" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4204,7 +4222,7 @@
       <c r="A150" s="2">
         <v>149</v>
       </c>
-      <c r="B150" s="7">
+      <c r="B150" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4216,7 +4234,7 @@
       <c r="A151" s="2">
         <v>150</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4228,7 +4246,7 @@
       <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4240,7 +4258,7 @@
       <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4252,7 +4270,7 @@
       <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4264,7 +4282,7 @@
       <c r="A155" s="2">
         <v>154</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4276,7 +4294,7 @@
       <c r="A156" s="2">
         <v>155</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4288,7 +4306,7 @@
       <c r="A157" s="2">
         <v>156</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4300,7 +4318,7 @@
       <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4312,7 +4330,7 @@
       <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4324,7 +4342,7 @@
       <c r="A160" s="2">
         <v>159</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4336,7 +4354,7 @@
       <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4348,7 +4366,7 @@
       <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4360,7 +4378,7 @@
       <c r="A163" s="2">
         <v>162</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B163" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4372,7 +4390,7 @@
       <c r="A164" s="2">
         <v>163</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4384,7 +4402,7 @@
       <c r="A165" s="2">
         <v>164</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4396,7 +4414,7 @@
       <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B166" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4408,7 +4426,7 @@
       <c r="A167" s="2">
         <v>166</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4420,7 +4438,7 @@
       <c r="A168" s="2">
         <v>167</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B168" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4432,7 +4450,7 @@
       <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B169" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4444,7 +4462,7 @@
       <c r="A170" s="2">
         <v>169</v>
       </c>
-      <c r="B170" s="7">
+      <c r="B170" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4456,7 +4474,7 @@
       <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" s="7">
+      <c r="B171" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4464,16 +4482,16 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="9"/>
-      <c r="B172" s="10">
+    <row r="172" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="8"/>
+      <c r="B172" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="D172" s="10" t="s">
         <v>446</v>
       </c>
     </row>
@@ -4481,7 +4499,7 @@
       <c r="A173" s="2">
         <v>172</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B173" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4493,7 +4511,7 @@
       <c r="A174" s="2">
         <v>173</v>
       </c>
-      <c r="B174" s="7">
+      <c r="B174" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4505,7 +4523,7 @@
       <c r="A175" s="2">
         <v>174</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4517,7 +4535,7 @@
       <c r="A176" s="2">
         <v>175</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B176" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4529,7 +4547,7 @@
       <c r="A177" s="2">
         <v>176</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B177" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4541,7 +4559,7 @@
       <c r="A178" s="2">
         <v>177</v>
       </c>
-      <c r="B178" s="7">
+      <c r="B178" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4553,7 +4571,7 @@
       <c r="A179" s="2">
         <v>178</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B179" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4565,7 +4583,7 @@
       <c r="A180" s="2">
         <v>179</v>
       </c>
-      <c r="B180" s="7">
+      <c r="B180" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4577,7 +4595,7 @@
       <c r="A181" s="2">
         <v>180</v>
       </c>
-      <c r="B181" s="7">
+      <c r="B181" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4589,7 +4607,7 @@
       <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" s="7">
+      <c r="B182" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4601,7 +4619,7 @@
       <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" s="7">
+      <c r="B183" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4613,7 +4631,7 @@
       <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184" s="7">
+      <c r="B184" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4625,7 +4643,7 @@
       <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" s="7">
+      <c r="B185" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4637,7 +4655,7 @@
       <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" s="7">
+      <c r="B186" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4649,7 +4667,7 @@
       <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" s="7">
+      <c r="B187" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4661,7 +4679,7 @@
       <c r="A188" s="2">
         <v>187</v>
       </c>
-      <c r="B188" s="7">
+      <c r="B188" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4673,7 +4691,7 @@
       <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" s="7">
+      <c r="B189" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4685,7 +4703,7 @@
       <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" s="7">
+      <c r="B190" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4697,7 +4715,7 @@
       <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" s="7">
+      <c r="B191" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4709,7 +4727,7 @@
       <c r="A192" s="2">
         <v>191</v>
       </c>
-      <c r="B192" s="7">
+      <c r="B192" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4721,7 +4739,7 @@
       <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" s="7">
+      <c r="B193" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4733,7 +4751,7 @@
       <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" s="7">
+      <c r="B194" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -4745,7 +4763,7 @@
       <c r="A195" s="2">
         <v>194</v>
       </c>
-      <c r="B195" s="7">
+      <c r="B195" s="6">
         <f t="shared" ref="B195:B258" si="3">SEARCH(A195,C195)</f>
         <v>7</v>
       </c>
@@ -4757,7 +4775,7 @@
       <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" s="7">
+      <c r="B196" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4769,7 +4787,7 @@
       <c r="A197" s="2">
         <v>196</v>
       </c>
-      <c r="B197" s="7">
+      <c r="B197" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4781,7 +4799,7 @@
       <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" s="7">
+      <c r="B198" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4793,7 +4811,7 @@
       <c r="A199" s="2">
         <v>198</v>
       </c>
-      <c r="B199" s="7">
+      <c r="B199" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4805,7 +4823,7 @@
       <c r="A200" s="2">
         <v>199</v>
       </c>
-      <c r="B200" s="7">
+      <c r="B200" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4817,7 +4835,7 @@
       <c r="A201" s="2">
         <v>200</v>
       </c>
-      <c r="B201" s="7">
+      <c r="B201" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4829,7 +4847,7 @@
       <c r="A202" s="2">
         <v>201</v>
       </c>
-      <c r="B202" s="7">
+      <c r="B202" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4841,7 +4859,7 @@
       <c r="A203" s="2">
         <v>202</v>
       </c>
-      <c r="B203" s="7">
+      <c r="B203" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4853,7 +4871,7 @@
       <c r="A204" s="2">
         <v>203</v>
       </c>
-      <c r="B204" s="7">
+      <c r="B204" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4865,7 +4883,7 @@
       <c r="A205" s="2">
         <v>204</v>
       </c>
-      <c r="B205" s="7">
+      <c r="B205" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4877,7 +4895,7 @@
       <c r="A206" s="2">
         <v>205</v>
       </c>
-      <c r="B206" s="7">
+      <c r="B206" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4889,7 +4907,7 @@
       <c r="A207" s="2">
         <v>206</v>
       </c>
-      <c r="B207" s="7">
+      <c r="B207" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4901,7 +4919,7 @@
       <c r="A208" s="2">
         <v>207</v>
       </c>
-      <c r="B208" s="7">
+      <c r="B208" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4913,7 +4931,7 @@
       <c r="A209" s="2">
         <v>208</v>
       </c>
-      <c r="B209" s="7">
+      <c r="B209" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4925,7 +4943,7 @@
       <c r="A210" s="2">
         <v>209</v>
       </c>
-      <c r="B210" s="7">
+      <c r="B210" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4937,7 +4955,7 @@
       <c r="A211" s="2">
         <v>210</v>
       </c>
-      <c r="B211" s="7">
+      <c r="B211" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4949,7 +4967,7 @@
       <c r="A212" s="2">
         <v>211</v>
       </c>
-      <c r="B212" s="7">
+      <c r="B212" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4961,7 +4979,7 @@
       <c r="A213" s="2">
         <v>212</v>
       </c>
-      <c r="B213" s="7">
+      <c r="B213" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4973,7 +4991,7 @@
       <c r="A214" s="2">
         <v>213</v>
       </c>
-      <c r="B214" s="7">
+      <c r="B214" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4985,7 +5003,7 @@
       <c r="A215" s="2">
         <v>214</v>
       </c>
-      <c r="B215" s="7">
+      <c r="B215" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4997,7 +5015,7 @@
       <c r="A216" s="2">
         <v>215</v>
       </c>
-      <c r="B216" s="7">
+      <c r="B216" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5009,7 +5027,7 @@
       <c r="A217" s="2">
         <v>216</v>
       </c>
-      <c r="B217" s="7">
+      <c r="B217" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5021,7 +5039,7 @@
       <c r="A218" s="2">
         <v>217</v>
       </c>
-      <c r="B218" s="7">
+      <c r="B218" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5033,7 +5051,7 @@
       <c r="A219" s="2">
         <v>218</v>
       </c>
-      <c r="B219" s="7">
+      <c r="B219" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5045,7 +5063,7 @@
       <c r="A220" s="2">
         <v>219</v>
       </c>
-      <c r="B220" s="7">
+      <c r="B220" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5057,7 +5075,7 @@
       <c r="A221" s="2">
         <v>220</v>
       </c>
-      <c r="B221" s="7">
+      <c r="B221" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5069,7 +5087,7 @@
       <c r="A222" s="2">
         <v>221</v>
       </c>
-      <c r="B222" s="7">
+      <c r="B222" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5081,7 +5099,7 @@
       <c r="A223" s="2">
         <v>222</v>
       </c>
-      <c r="B223" s="7">
+      <c r="B223" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5093,7 +5111,7 @@
       <c r="A224" s="2">
         <v>223</v>
       </c>
-      <c r="B224" s="7">
+      <c r="B224" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5105,7 +5123,7 @@
       <c r="A225" s="2">
         <v>224</v>
       </c>
-      <c r="B225" s="7">
+      <c r="B225" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5117,7 +5135,7 @@
       <c r="A226" s="2">
         <v>225</v>
       </c>
-      <c r="B226" s="7">
+      <c r="B226" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5129,7 +5147,7 @@
       <c r="A227" s="2">
         <v>226</v>
       </c>
-      <c r="B227" s="7">
+      <c r="B227" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5141,7 +5159,7 @@
       <c r="A228" s="2">
         <v>227</v>
       </c>
-      <c r="B228" s="7">
+      <c r="B228" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5153,7 +5171,7 @@
       <c r="A229" s="2">
         <v>228</v>
       </c>
-      <c r="B229" s="7">
+      <c r="B229" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5165,7 +5183,7 @@
       <c r="A230" s="2">
         <v>229</v>
       </c>
-      <c r="B230" s="7">
+      <c r="B230" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5177,7 +5195,7 @@
       <c r="A231" s="2">
         <v>230</v>
       </c>
-      <c r="B231" s="7">
+      <c r="B231" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5189,7 +5207,7 @@
       <c r="A232" s="2">
         <v>231</v>
       </c>
-      <c r="B232" s="7">
+      <c r="B232" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5201,7 +5219,7 @@
       <c r="A233" s="2">
         <v>232</v>
       </c>
-      <c r="B233" s="7">
+      <c r="B233" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5213,7 +5231,7 @@
       <c r="A234" s="2">
         <v>233</v>
       </c>
-      <c r="B234" s="7">
+      <c r="B234" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5225,7 +5243,7 @@
       <c r="A235" s="2">
         <v>234</v>
       </c>
-      <c r="B235" s="7">
+      <c r="B235" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5237,7 +5255,7 @@
       <c r="A236" s="2">
         <v>235</v>
       </c>
-      <c r="B236" s="7">
+      <c r="B236" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5249,7 +5267,7 @@
       <c r="A237" s="2">
         <v>236</v>
       </c>
-      <c r="B237" s="7">
+      <c r="B237" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5261,7 +5279,7 @@
       <c r="A238" s="2">
         <v>237</v>
       </c>
-      <c r="B238" s="7">
+      <c r="B238" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5273,7 +5291,7 @@
       <c r="A239" s="2">
         <v>238</v>
       </c>
-      <c r="B239" s="7">
+      <c r="B239" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5285,7 +5303,7 @@
       <c r="A240" s="2">
         <v>239</v>
       </c>
-      <c r="B240" s="7">
+      <c r="B240" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5297,7 +5315,7 @@
       <c r="A241" s="2">
         <v>240</v>
       </c>
-      <c r="B241" s="7">
+      <c r="B241" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5309,7 +5327,7 @@
       <c r="A242" s="2">
         <v>241</v>
       </c>
-      <c r="B242" s="7">
+      <c r="B242" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5321,7 +5339,7 @@
       <c r="A243" s="2">
         <v>242</v>
       </c>
-      <c r="B243" s="7">
+      <c r="B243" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5333,7 +5351,7 @@
       <c r="A244" s="2">
         <v>243</v>
       </c>
-      <c r="B244" s="7">
+      <c r="B244" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5341,81 +5359,81 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="9"/>
-      <c r="B245" s="10">
+    <row r="245" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="8"/>
+      <c r="B245" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C245" s="11" t="s">
+      <c r="C245" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D245" s="11" t="s">
+      <c r="D245" s="10" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="246" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="9"/>
-      <c r="B246" s="10">
+    <row r="246" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="8"/>
+      <c r="B246" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C246" s="11" t="s">
+      <c r="C246" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D246" s="11" t="s">
+      <c r="D246" s="10" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="247" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="9"/>
-      <c r="B247" s="10">
+    <row r="247" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="8"/>
+      <c r="B247" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C247" s="11" t="s">
+      <c r="C247" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D247" s="11" t="s">
+      <c r="D247" s="10" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="248" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="9"/>
-      <c r="B248" s="10">
+    <row r="248" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="8"/>
+      <c r="B248" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C248" s="11" t="s">
+      <c r="C248" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D248" s="11" t="s">
+      <c r="D248" s="10" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="249" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="9"/>
-      <c r="B249" s="10">
+    <row r="249" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="8"/>
+      <c r="B249" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C249" s="11" t="s">
+      <c r="C249" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D249" s="11" t="s">
+      <c r="D249" s="10" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="9"/>
-      <c r="B250" s="10">
+    <row r="250" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A250" s="8"/>
+      <c r="B250" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C250" s="11" t="s">
+      <c r="C250" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D250" s="11" t="s">
+      <c r="D250" s="10" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5423,7 +5441,7 @@
       <c r="A251" s="2">
         <v>250</v>
       </c>
-      <c r="B251" s="7">
+      <c r="B251" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5431,55 +5449,55 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="9"/>
-      <c r="B252" s="10">
+    <row r="252" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A252" s="8"/>
+      <c r="B252" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C252" s="11" t="s">
+      <c r="C252" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D252" s="11" t="s">
+      <c r="D252" s="10" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="253" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="9"/>
-      <c r="B253" s="10">
+    <row r="253" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="8"/>
+      <c r="B253" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C253" s="11" t="s">
+      <c r="C253" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D253" s="11" t="s">
+      <c r="D253" s="10" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="254" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="9"/>
-      <c r="B254" s="10">
+    <row r="254" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="8"/>
+      <c r="B254" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C254" s="11" t="s">
+      <c r="C254" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D254" s="11" t="s">
+      <c r="D254" s="10" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="255" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="9"/>
-      <c r="B255" s="10">
+    <row r="255" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="8"/>
+      <c r="B255" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C255" s="11" t="s">
+      <c r="C255" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D255" s="11" t="s">
+      <c r="D255" s="10" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5487,7 +5505,7 @@
       <c r="A256" s="2">
         <v>255</v>
       </c>
-      <c r="B256" s="7">
+      <c r="B256" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5499,7 +5517,7 @@
       <c r="A257" s="2">
         <v>256</v>
       </c>
-      <c r="B257" s="7">
+      <c r="B257" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5511,7 +5529,7 @@
       <c r="A258" s="2">
         <v>257</v>
       </c>
-      <c r="B258" s="7">
+      <c r="B258" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -5523,7 +5541,7 @@
       <c r="A259" s="2">
         <v>258</v>
       </c>
-      <c r="B259" s="7">
+      <c r="B259" s="6">
         <f t="shared" ref="B259:B322" si="4">SEARCH(A259,C259)</f>
         <v>7</v>
       </c>
@@ -5535,7 +5553,7 @@
       <c r="A260" s="2">
         <v>259</v>
       </c>
-      <c r="B260" s="7">
+      <c r="B260" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5547,7 +5565,7 @@
       <c r="A261" s="2">
         <v>260</v>
       </c>
-      <c r="B261" s="7">
+      <c r="B261" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5559,7 +5577,7 @@
       <c r="A262" s="2">
         <v>261</v>
       </c>
-      <c r="B262" s="7">
+      <c r="B262" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5571,7 +5589,7 @@
       <c r="A263" s="2">
         <v>262</v>
       </c>
-      <c r="B263" s="7">
+      <c r="B263" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5583,7 +5601,7 @@
       <c r="A264" s="2">
         <v>263</v>
       </c>
-      <c r="B264" s="7">
+      <c r="B264" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5595,7 +5613,7 @@
       <c r="A265" s="2">
         <v>264</v>
       </c>
-      <c r="B265" s="7">
+      <c r="B265" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5607,7 +5625,7 @@
       <c r="A266" s="2">
         <v>265</v>
       </c>
-      <c r="B266" s="7">
+      <c r="B266" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5619,7 +5637,7 @@
       <c r="A267" s="2">
         <v>266</v>
       </c>
-      <c r="B267" s="7">
+      <c r="B267" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5631,7 +5649,7 @@
       <c r="A268" s="2">
         <v>267</v>
       </c>
-      <c r="B268" s="7">
+      <c r="B268" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5643,7 +5661,7 @@
       <c r="A269" s="2">
         <v>268</v>
       </c>
-      <c r="B269" s="7">
+      <c r="B269" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5655,7 +5673,7 @@
       <c r="A270" s="2">
         <v>269</v>
       </c>
-      <c r="B270" s="7">
+      <c r="B270" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5667,7 +5685,7 @@
       <c r="A271" s="2">
         <v>270</v>
       </c>
-      <c r="B271" s="7">
+      <c r="B271" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5679,7 +5697,7 @@
       <c r="A272" s="2">
         <v>271</v>
       </c>
-      <c r="B272" s="7">
+      <c r="B272" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5691,7 +5709,7 @@
       <c r="A273" s="2">
         <v>272</v>
       </c>
-      <c r="B273" s="7">
+      <c r="B273" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5703,7 +5721,7 @@
       <c r="A274" s="2">
         <v>273</v>
       </c>
-      <c r="B274" s="7">
+      <c r="B274" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5715,7 +5733,7 @@
       <c r="A275" s="2">
         <v>274</v>
       </c>
-      <c r="B275" s="7">
+      <c r="B275" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5727,7 +5745,7 @@
       <c r="A276" s="2">
         <v>275</v>
       </c>
-      <c r="B276" s="7">
+      <c r="B276" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5739,7 +5757,7 @@
       <c r="A277" s="2">
         <v>276</v>
       </c>
-      <c r="B277" s="7">
+      <c r="B277" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5751,7 +5769,7 @@
       <c r="A278" s="2">
         <v>277</v>
       </c>
-      <c r="B278" s="7">
+      <c r="B278" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5763,7 +5781,7 @@
       <c r="A279" s="2">
         <v>278</v>
       </c>
-      <c r="B279" s="7">
+      <c r="B279" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5775,7 +5793,7 @@
       <c r="A280" s="2">
         <v>279</v>
       </c>
-      <c r="B280" s="7">
+      <c r="B280" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5787,7 +5805,7 @@
       <c r="A281" s="2">
         <v>280</v>
       </c>
-      <c r="B281" s="7">
+      <c r="B281" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5799,7 +5817,7 @@
       <c r="A282" s="2">
         <v>281</v>
       </c>
-      <c r="B282" s="7">
+      <c r="B282" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5811,7 +5829,7 @@
       <c r="A283" s="2">
         <v>282</v>
       </c>
-      <c r="B283" s="7">
+      <c r="B283" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5823,7 +5841,7 @@
       <c r="A284" s="2">
         <v>283</v>
       </c>
-      <c r="B284" s="7">
+      <c r="B284" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5835,7 +5853,7 @@
       <c r="A285" s="2">
         <v>284</v>
       </c>
-      <c r="B285" s="7">
+      <c r="B285" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5847,7 +5865,7 @@
       <c r="A286" s="2">
         <v>285</v>
       </c>
-      <c r="B286" s="7">
+      <c r="B286" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5859,7 +5877,7 @@
       <c r="A287" s="2">
         <v>286</v>
       </c>
-      <c r="B287" s="7">
+      <c r="B287" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5871,7 +5889,7 @@
       <c r="A288" s="2">
         <v>287</v>
       </c>
-      <c r="B288" s="7">
+      <c r="B288" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5883,7 +5901,7 @@
       <c r="A289" s="2">
         <v>288</v>
       </c>
-      <c r="B289" s="7">
+      <c r="B289" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5895,7 +5913,7 @@
       <c r="A290" s="2">
         <v>289</v>
       </c>
-      <c r="B290" s="7">
+      <c r="B290" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5907,7 +5925,7 @@
       <c r="A291" s="2">
         <v>290</v>
       </c>
-      <c r="B291" s="7">
+      <c r="B291" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5919,7 +5937,7 @@
       <c r="A292" s="2">
         <v>291</v>
       </c>
-      <c r="B292" s="7">
+      <c r="B292" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5931,7 +5949,7 @@
       <c r="A293" s="2">
         <v>292</v>
       </c>
-      <c r="B293" s="7">
+      <c r="B293" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5943,7 +5961,7 @@
       <c r="A294" s="2">
         <v>293</v>
       </c>
-      <c r="B294" s="7">
+      <c r="B294" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5955,7 +5973,7 @@
       <c r="A295" s="2">
         <v>294</v>
       </c>
-      <c r="B295" s="7">
+      <c r="B295" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5967,7 +5985,7 @@
       <c r="A296" s="2">
         <v>295</v>
       </c>
-      <c r="B296" s="7">
+      <c r="B296" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5979,7 +5997,7 @@
       <c r="A297" s="2">
         <v>296</v>
       </c>
-      <c r="B297" s="7">
+      <c r="B297" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -5991,7 +6009,7 @@
       <c r="A298" s="2">
         <v>297</v>
       </c>
-      <c r="B298" s="7">
+      <c r="B298" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6003,7 +6021,7 @@
       <c r="A299" s="2">
         <v>298</v>
       </c>
-      <c r="B299" s="7">
+      <c r="B299" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6015,7 +6033,7 @@
       <c r="A300" s="2">
         <v>299</v>
       </c>
-      <c r="B300" s="7">
+      <c r="B300" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6027,7 +6045,7 @@
       <c r="A301" s="2">
         <v>300</v>
       </c>
-      <c r="B301" s="7">
+      <c r="B301" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6039,7 +6057,7 @@
       <c r="A302" s="2">
         <v>301</v>
       </c>
-      <c r="B302" s="7">
+      <c r="B302" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6051,7 +6069,7 @@
       <c r="A303" s="2">
         <v>302</v>
       </c>
-      <c r="B303" s="7">
+      <c r="B303" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6063,7 +6081,7 @@
       <c r="A304" s="2">
         <v>303</v>
       </c>
-      <c r="B304" s="7">
+      <c r="B304" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6075,7 +6093,7 @@
       <c r="A305" s="2">
         <v>304</v>
       </c>
-      <c r="B305" s="7">
+      <c r="B305" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6087,7 +6105,7 @@
       <c r="A306" s="2">
         <v>305</v>
       </c>
-      <c r="B306" s="7">
+      <c r="B306" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6099,7 +6117,7 @@
       <c r="A307" s="2">
         <v>306</v>
       </c>
-      <c r="B307" s="7">
+      <c r="B307" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6111,7 +6129,7 @@
       <c r="A308" s="2">
         <v>307</v>
       </c>
-      <c r="B308" s="7">
+      <c r="B308" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6123,7 +6141,7 @@
       <c r="A309" s="2">
         <v>308</v>
       </c>
-      <c r="B309" s="7">
+      <c r="B309" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6135,7 +6153,7 @@
       <c r="A310" s="2">
         <v>309</v>
       </c>
-      <c r="B310" s="7">
+      <c r="B310" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6147,7 +6165,7 @@
       <c r="A311" s="2">
         <v>310</v>
       </c>
-      <c r="B311" s="7">
+      <c r="B311" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6159,7 +6177,7 @@
       <c r="A312" s="2">
         <v>311</v>
       </c>
-      <c r="B312" s="7">
+      <c r="B312" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6171,7 +6189,7 @@
       <c r="A313" s="2">
         <v>312</v>
       </c>
-      <c r="B313" s="7">
+      <c r="B313" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6183,7 +6201,7 @@
       <c r="A314" s="2">
         <v>313</v>
       </c>
-      <c r="B314" s="7">
+      <c r="B314" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6195,7 +6213,7 @@
       <c r="A315" s="2">
         <v>314</v>
       </c>
-      <c r="B315" s="7">
+      <c r="B315" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6207,7 +6225,7 @@
       <c r="A316" s="2">
         <v>315</v>
       </c>
-      <c r="B316" s="7">
+      <c r="B316" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6219,7 +6237,7 @@
       <c r="A317" s="2">
         <v>316</v>
       </c>
-      <c r="B317" s="7">
+      <c r="B317" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6231,7 +6249,7 @@
       <c r="A318" s="2">
         <v>317</v>
       </c>
-      <c r="B318" s="7">
+      <c r="B318" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6243,7 +6261,7 @@
       <c r="A319" s="2">
         <v>318</v>
       </c>
-      <c r="B319" s="7">
+      <c r="B319" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6255,7 +6273,7 @@
       <c r="A320" s="2">
         <v>319</v>
       </c>
-      <c r="B320" s="7">
+      <c r="B320" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6267,7 +6285,7 @@
       <c r="A321" s="2">
         <v>320</v>
       </c>
-      <c r="B321" s="7">
+      <c r="B321" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6279,7 +6297,7 @@
       <c r="A322" s="2">
         <v>321</v>
       </c>
-      <c r="B322" s="7">
+      <c r="B322" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -6291,7 +6309,7 @@
       <c r="A323" s="2">
         <v>322</v>
       </c>
-      <c r="B323" s="7">
+      <c r="B323" s="6">
         <f t="shared" ref="B323:B386" si="5">SEARCH(A323,C323)</f>
         <v>7</v>
       </c>
@@ -6303,7 +6321,7 @@
       <c r="A324" s="2">
         <v>323</v>
       </c>
-      <c r="B324" s="7">
+      <c r="B324" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6315,7 +6333,7 @@
       <c r="A325" s="2">
         <v>324</v>
       </c>
-      <c r="B325" s="7">
+      <c r="B325" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6327,7 +6345,7 @@
       <c r="A326" s="2">
         <v>325</v>
       </c>
-      <c r="B326" s="7">
+      <c r="B326" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6339,7 +6357,7 @@
       <c r="A327" s="2">
         <v>326</v>
       </c>
-      <c r="B327" s="7">
+      <c r="B327" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6351,7 +6369,7 @@
       <c r="A328" s="2">
         <v>327</v>
       </c>
-      <c r="B328" s="7">
+      <c r="B328" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6363,7 +6381,7 @@
       <c r="A329" s="2">
         <v>328</v>
       </c>
-      <c r="B329" s="7">
+      <c r="B329" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6375,7 +6393,7 @@
       <c r="A330" s="2">
         <v>329</v>
       </c>
-      <c r="B330" s="7">
+      <c r="B330" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6387,7 +6405,7 @@
       <c r="A331" s="2">
         <v>330</v>
       </c>
-      <c r="B331" s="7">
+      <c r="B331" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6399,7 +6417,7 @@
       <c r="A332" s="2">
         <v>331</v>
       </c>
-      <c r="B332" s="7">
+      <c r="B332" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6411,7 +6429,7 @@
       <c r="A333" s="2">
         <v>332</v>
       </c>
-      <c r="B333" s="7">
+      <c r="B333" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6423,7 +6441,7 @@
       <c r="A334" s="2">
         <v>333</v>
       </c>
-      <c r="B334" s="7">
+      <c r="B334" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6435,7 +6453,7 @@
       <c r="A335" s="2">
         <v>334</v>
       </c>
-      <c r="B335" s="7">
+      <c r="B335" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6447,7 +6465,7 @@
       <c r="A336" s="2">
         <v>335</v>
       </c>
-      <c r="B336" s="7">
+      <c r="B336" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6459,7 +6477,7 @@
       <c r="A337" s="2">
         <v>336</v>
       </c>
-      <c r="B337" s="7">
+      <c r="B337" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6471,7 +6489,7 @@
       <c r="A338" s="2">
         <v>337</v>
       </c>
-      <c r="B338" s="7">
+      <c r="B338" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6483,7 +6501,7 @@
       <c r="A339" s="2">
         <v>338</v>
       </c>
-      <c r="B339" s="7">
+      <c r="B339" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6495,7 +6513,7 @@
       <c r="A340" s="2">
         <v>339</v>
       </c>
-      <c r="B340" s="7">
+      <c r="B340" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6507,7 +6525,7 @@
       <c r="A341" s="2">
         <v>340</v>
       </c>
-      <c r="B341" s="7">
+      <c r="B341" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6519,7 +6537,7 @@
       <c r="A342" s="2">
         <v>341</v>
       </c>
-      <c r="B342" s="7">
+      <c r="B342" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6531,7 +6549,7 @@
       <c r="A343" s="2">
         <v>342</v>
       </c>
-      <c r="B343" s="7">
+      <c r="B343" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6543,7 +6561,7 @@
       <c r="A344" s="2">
         <v>343</v>
       </c>
-      <c r="B344" s="7">
+      <c r="B344" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6555,7 +6573,7 @@
       <c r="A345" s="2">
         <v>344</v>
       </c>
-      <c r="B345" s="7">
+      <c r="B345" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6567,7 +6585,7 @@
       <c r="A346" s="2">
         <v>345</v>
       </c>
-      <c r="B346" s="7">
+      <c r="B346" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6579,7 +6597,7 @@
       <c r="A347" s="2">
         <v>346</v>
       </c>
-      <c r="B347" s="7">
+      <c r="B347" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6591,7 +6609,7 @@
       <c r="A348" s="2">
         <v>347</v>
       </c>
-      <c r="B348" s="7">
+      <c r="B348" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6599,24 +6617,24 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A349" s="9"/>
-      <c r="B349" s="10">
+    <row r="349" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A349" s="8"/>
+      <c r="B349" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C349" s="11" t="s">
+      <c r="C349" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D349" s="11" t="s">
-        <v>463</v>
+      <c r="D349" s="10" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <v>349</v>
       </c>
-      <c r="B350" s="7">
+      <c r="B350" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6628,7 +6646,7 @@
       <c r="A351" s="2">
         <v>350</v>
       </c>
-      <c r="B351" s="7">
+      <c r="B351" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6640,7 +6658,7 @@
       <c r="A352" s="2">
         <v>351</v>
       </c>
-      <c r="B352" s="7">
+      <c r="B352" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6648,16 +6666,16 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A353" s="9"/>
-      <c r="B353" s="10">
+    <row r="353" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A353" s="8"/>
+      <c r="B353" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C353" s="11" t="s">
+      <c r="C353" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="D353" s="11" t="s">
+      <c r="D353" s="10" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6665,7 +6683,7 @@
       <c r="A354" s="2">
         <v>353</v>
       </c>
-      <c r="B354" s="7">
+      <c r="B354" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6677,7 +6695,7 @@
       <c r="A355" s="2">
         <v>354</v>
       </c>
-      <c r="B355" s="7">
+      <c r="B355" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6689,7 +6707,7 @@
       <c r="A356" s="2">
         <v>355</v>
       </c>
-      <c r="B356" s="7">
+      <c r="B356" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6701,7 +6719,7 @@
       <c r="A357" s="2">
         <v>356</v>
       </c>
-      <c r="B357" s="7">
+      <c r="B357" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6713,7 +6731,7 @@
       <c r="A358" s="2">
         <v>357</v>
       </c>
-      <c r="B358" s="7">
+      <c r="B358" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6725,7 +6743,7 @@
       <c r="A359" s="2">
         <v>358</v>
       </c>
-      <c r="B359" s="7">
+      <c r="B359" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6737,7 +6755,7 @@
       <c r="A360" s="2">
         <v>359</v>
       </c>
-      <c r="B360" s="7">
+      <c r="B360" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6749,7 +6767,7 @@
       <c r="A361" s="2">
         <v>360</v>
       </c>
-      <c r="B361" s="7">
+      <c r="B361" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6761,7 +6779,7 @@
       <c r="A362" s="2">
         <v>361</v>
       </c>
-      <c r="B362" s="7">
+      <c r="B362" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6773,7 +6791,7 @@
       <c r="A363" s="2">
         <v>362</v>
       </c>
-      <c r="B363" s="7">
+      <c r="B363" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6785,7 +6803,7 @@
       <c r="A364" s="2">
         <v>363</v>
       </c>
-      <c r="B364" s="7">
+      <c r="B364" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6793,167 +6811,167 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A365" s="12"/>
-      <c r="B365" s="13">
+    <row r="365" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A365" s="11"/>
+      <c r="B365" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C365" s="14" t="s">
+      <c r="C365" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="D365" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A366" s="12"/>
-      <c r="B366" s="13">
+      <c r="D365" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A366" s="11"/>
+      <c r="B366" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C366" s="14" t="s">
+      <c r="C366" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D366" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A367" s="12"/>
-      <c r="B367" s="13">
+      <c r="D366" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A367" s="11"/>
+      <c r="B367" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C367" s="14" t="s">
+      <c r="C367" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="D367" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A368" s="12"/>
-      <c r="B368" s="13">
+      <c r="D367" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A368" s="11"/>
+      <c r="B368" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C368" s="14" t="s">
+      <c r="C368" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="D368" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A369" s="12"/>
-      <c r="B369" s="13">
+      <c r="D368" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A369" s="11"/>
+      <c r="B369" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C369" s="14" t="s">
+      <c r="C369" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="D369" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A370" s="12"/>
-      <c r="B370" s="13">
+      <c r="D369" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A370" s="11"/>
+      <c r="B370" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C370" s="14" t="s">
+      <c r="C370" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D370" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A371" s="12"/>
-      <c r="B371" s="13">
+      <c r="D370" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A371" s="11"/>
+      <c r="B371" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C371" s="14" t="s">
+      <c r="C371" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="D371" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A372" s="12"/>
-      <c r="B372" s="13">
+      <c r="D371" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A372" s="11"/>
+      <c r="B372" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C372" s="14" t="s">
+      <c r="C372" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="D372" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A373" s="12"/>
-      <c r="B373" s="13">
+      <c r="D372" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A373" s="11"/>
+      <c r="B373" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C373" s="14" t="s">
+      <c r="C373" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D373" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A374" s="12"/>
-      <c r="B374" s="13">
+      <c r="D373" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A374" s="11"/>
+      <c r="B374" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C374" s="14" t="s">
+      <c r="C374" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="D374" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A375" s="12"/>
-      <c r="B375" s="13">
+      <c r="D374" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A375" s="11"/>
+      <c r="B375" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C375" s="14" t="s">
+      <c r="C375" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D375" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A376" s="12"/>
-      <c r="B376" s="13">
+      <c r="D375" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A376" s="11"/>
+      <c r="B376" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C376" s="14" t="s">
+      <c r="C376" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="D376" s="15" t="s">
-        <v>460</v>
+      <c r="D376" s="14" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <v>376</v>
       </c>
-      <c r="B377" s="7">
+      <c r="B377" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6965,7 +6983,7 @@
       <c r="A378" s="2">
         <v>377</v>
       </c>
-      <c r="B378" s="7">
+      <c r="B378" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6977,7 +6995,7 @@
       <c r="A379" s="2">
         <v>378</v>
       </c>
-      <c r="B379" s="7">
+      <c r="B379" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -6989,7 +7007,7 @@
       <c r="A380" s="2">
         <v>379</v>
       </c>
-      <c r="B380" s="7">
+      <c r="B380" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -7001,7 +7019,7 @@
       <c r="A381" s="2">
         <v>380</v>
       </c>
-      <c r="B381" s="7">
+      <c r="B381" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -7013,7 +7031,7 @@
       <c r="A382" s="2">
         <v>381</v>
       </c>
-      <c r="B382" s="7">
+      <c r="B382" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -7025,7 +7043,7 @@
       <c r="A383" s="2">
         <v>382</v>
       </c>
-      <c r="B383" s="7">
+      <c r="B383" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -7037,7 +7055,7 @@
       <c r="A384" s="2">
         <v>383</v>
       </c>
-      <c r="B384" s="7">
+      <c r="B384" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -7049,7 +7067,7 @@
       <c r="A385" s="2">
         <v>384</v>
       </c>
-      <c r="B385" s="7">
+      <c r="B385" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -7061,7 +7079,7 @@
       <c r="A386" s="2">
         <v>385</v>
       </c>
-      <c r="B386" s="7">
+      <c r="B386" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -7073,7 +7091,7 @@
       <c r="A387" s="2">
         <v>386</v>
       </c>
-      <c r="B387" s="7">
+      <c r="B387" s="6">
         <f t="shared" ref="B387:B437" si="6">SEARCH(A387,C387)</f>
         <v>7</v>
       </c>
@@ -7081,24 +7099,24 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A388" s="9"/>
-      <c r="B388" s="10">
+    <row r="388" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A388" s="8"/>
+      <c r="B388" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C388" s="11" t="s">
+      <c r="C388" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="D388" s="11" t="s">
-        <v>464</v>
+      <c r="D388" s="10" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <v>388</v>
       </c>
-      <c r="B389" s="7">
+      <c r="B389" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7110,7 +7128,7 @@
       <c r="A390" s="2">
         <v>389</v>
       </c>
-      <c r="B390" s="7">
+      <c r="B390" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7122,7 +7140,7 @@
       <c r="A391" s="2">
         <v>390</v>
       </c>
-      <c r="B391" s="7">
+      <c r="B391" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7134,7 +7152,7 @@
       <c r="A392" s="2">
         <v>391</v>
       </c>
-      <c r="B392" s="7">
+      <c r="B392" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7146,7 +7164,7 @@
       <c r="A393" s="2">
         <v>392</v>
       </c>
-      <c r="B393" s="7">
+      <c r="B393" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7158,7 +7176,7 @@
       <c r="A394" s="2">
         <v>393</v>
       </c>
-      <c r="B394" s="7">
+      <c r="B394" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7170,7 +7188,7 @@
       <c r="A395" s="2">
         <v>394</v>
       </c>
-      <c r="B395" s="7">
+      <c r="B395" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7182,7 +7200,7 @@
       <c r="A396" s="2">
         <v>395</v>
       </c>
-      <c r="B396" s="7">
+      <c r="B396" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7194,7 +7212,7 @@
       <c r="A397" s="2">
         <v>396</v>
       </c>
-      <c r="B397" s="7">
+      <c r="B397" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7206,7 +7224,7 @@
       <c r="A398" s="2">
         <v>397</v>
       </c>
-      <c r="B398" s="7">
+      <c r="B398" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7218,7 +7236,7 @@
       <c r="A399" s="2">
         <v>398</v>
       </c>
-      <c r="B399" s="7">
+      <c r="B399" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7230,7 +7248,7 @@
       <c r="A400" s="2">
         <v>399</v>
       </c>
-      <c r="B400" s="7">
+      <c r="B400" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7242,7 +7260,7 @@
       <c r="A401" s="2">
         <v>400</v>
       </c>
-      <c r="B401" s="7">
+      <c r="B401" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7254,7 +7272,7 @@
       <c r="A402" s="2">
         <v>401</v>
       </c>
-      <c r="B402" s="7">
+      <c r="B402" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7266,7 +7284,7 @@
       <c r="A403" s="2">
         <v>402</v>
       </c>
-      <c r="B403" s="7">
+      <c r="B403" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7278,7 +7296,7 @@
       <c r="A404" s="2">
         <v>403</v>
       </c>
-      <c r="B404" s="7">
+      <c r="B404" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7290,7 +7308,7 @@
       <c r="A405" s="2">
         <v>404</v>
       </c>
-      <c r="B405" s="7">
+      <c r="B405" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7302,7 +7320,7 @@
       <c r="A406" s="2">
         <v>405</v>
       </c>
-      <c r="B406" s="7">
+      <c r="B406" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7314,7 +7332,7 @@
       <c r="A407" s="2">
         <v>406</v>
       </c>
-      <c r="B407" s="7">
+      <c r="B407" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7326,7 +7344,7 @@
       <c r="A408" s="2">
         <v>407</v>
       </c>
-      <c r="B408" s="7">
+      <c r="B408" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7338,7 +7356,7 @@
       <c r="A409" s="2">
         <v>408</v>
       </c>
-      <c r="B409" s="7">
+      <c r="B409" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7350,7 +7368,7 @@
       <c r="A410" s="2">
         <v>409</v>
       </c>
-      <c r="B410" s="7">
+      <c r="B410" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7358,107 +7376,107 @@
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A411" s="9"/>
-      <c r="B411" s="10">
+    <row r="411" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A411" s="8"/>
+      <c r="B411" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C411" s="11" t="s">
+      <c r="C411" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="D411" s="11" t="s">
+      <c r="D411" s="10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="412" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A412" s="9"/>
-      <c r="B412" s="10">
+    <row r="412" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A412" s="8"/>
+      <c r="B412" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C412" s="11" t="s">
+      <c r="C412" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="D412" s="11" t="s">
+      <c r="D412" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="413" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A413" s="9"/>
-      <c r="B413" s="10">
+    <row r="413" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A413" s="8"/>
+      <c r="B413" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C413" s="11" t="s">
+      <c r="C413" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="D413" s="11" t="s">
+      <c r="D413" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="414" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A414" s="9"/>
-      <c r="B414" s="10">
+    <row r="414" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A414" s="8"/>
+      <c r="B414" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C414" s="11" t="s">
+      <c r="C414" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="D414" s="11" t="s">
+      <c r="D414" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="415" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A415" s="9"/>
-      <c r="B415" s="10">
+    <row r="415" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A415" s="8"/>
+      <c r="B415" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C415" s="11" t="s">
+      <c r="C415" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="D415" s="11" t="s">
+      <c r="D415" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="416" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A416" s="9"/>
-      <c r="B416" s="10">
+    <row r="416" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A416" s="8"/>
+      <c r="B416" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C416" s="11" t="s">
+      <c r="C416" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D416" s="11" t="s">
+      <c r="D416" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="417" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A417" s="9"/>
-      <c r="B417" s="10">
+    <row r="417" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A417" s="8"/>
+      <c r="B417" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C417" s="11" t="s">
+      <c r="C417" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D417" s="11" t="s">
+      <c r="D417" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="418" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A418" s="9"/>
-      <c r="B418" s="10">
+    <row r="418" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A418" s="8"/>
+      <c r="B418" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C418" s="11" t="s">
+      <c r="C418" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="D418" s="11" t="s">
+      <c r="D418" s="10" t="s">
         <v>443</v>
       </c>
     </row>
@@ -7466,7 +7484,7 @@
       <c r="A419" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B419" s="7">
+      <c r="B419" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7474,265 +7492,266 @@
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A420" s="12"/>
-      <c r="B420" s="13">
+    <row r="420" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A420" s="11"/>
+      <c r="B420" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C420" s="14" t="s">
+      <c r="C420" s="13" t="s">
         <v>419</v>
       </c>
       <c r="D420" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A421" s="12"/>
-      <c r="B421" s="13">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A421" s="11"/>
+      <c r="B421" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C421" s="14" t="s">
+      <c r="C421" s="13" t="s">
         <v>420</v>
       </c>
       <c r="D421" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A422" s="12"/>
-      <c r="B422" s="13">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A422" s="11"/>
+      <c r="B422" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C422" s="14" t="s">
+      <c r="C422" s="13" t="s">
         <v>421</v>
       </c>
       <c r="D422" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A423" s="12"/>
-      <c r="B423" s="13">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A423" s="11"/>
+      <c r="B423" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C423" s="14" t="s">
+      <c r="C423" s="13" t="s">
         <v>422</v>
       </c>
       <c r="D423" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A424" s="12"/>
-      <c r="B424" s="13">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A424" s="11"/>
+      <c r="B424" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C424" s="14" t="s">
+      <c r="C424" s="13" t="s">
         <v>423</v>
       </c>
       <c r="D424" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A425" s="12"/>
-      <c r="B425" s="13">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A425" s="11"/>
+      <c r="B425" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C425" s="14" t="s">
+      <c r="C425" s="13" t="s">
         <v>424</v>
       </c>
       <c r="D425" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A426" s="12"/>
-      <c r="B426" s="13">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A426" s="11"/>
+      <c r="B426" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C426" s="14" t="s">
+      <c r="C426" s="13" t="s">
         <v>425</v>
       </c>
       <c r="D426" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A427" s="12"/>
-      <c r="B427" s="13">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A427" s="11"/>
+      <c r="B427" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C427" s="14" t="s">
+      <c r="C427" s="13" t="s">
         <v>426</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A428" s="12"/>
-      <c r="B428" s="13">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A428" s="11"/>
+      <c r="B428" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C428" s="14" t="s">
+      <c r="C428" s="13" t="s">
         <v>427</v>
       </c>
       <c r="D428" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A429" s="12"/>
-      <c r="B429" s="13">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A429" s="11"/>
+      <c r="B429" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C429" s="14" t="s">
+      <c r="C429" s="13" t="s">
         <v>428</v>
       </c>
       <c r="D429" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A430" s="12"/>
-      <c r="B430" s="13">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A430" s="11"/>
+      <c r="B430" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C430" s="14" t="s">
+      <c r="C430" s="13" t="s">
         <v>429</v>
       </c>
       <c r="D430" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A431" s="9"/>
-      <c r="B431" s="10">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A431" s="8"/>
+      <c r="B431" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C431" s="11" t="s">
+      <c r="C431" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="D431" s="11" t="s">
+      <c r="D431" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="432" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A432" s="9"/>
-      <c r="B432" s="10">
+    <row r="432" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A432" s="8"/>
+      <c r="B432" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C432" s="11" t="s">
+      <c r="C432" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="D432" s="11" t="s">
+      <c r="D432" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="433" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A433" s="9"/>
-      <c r="B433" s="10">
+    <row r="433" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A433" s="8"/>
+      <c r="B433" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C433" s="11" t="s">
+      <c r="C433" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D433" s="11" t="s">
+      <c r="D433" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="434" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A434" s="9"/>
-      <c r="B434" s="10">
+    <row r="434" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A434" s="8"/>
+      <c r="B434" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C434" s="11" t="s">
+      <c r="C434" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="D434" s="11" t="s">
+      <c r="D434" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="435" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A435" s="9"/>
-      <c r="B435" s="10">
+    <row r="435" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A435" s="8"/>
+      <c r="B435" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C435" s="11" t="s">
+      <c r="C435" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="D435" s="11" t="s">
+      <c r="D435" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="436" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A436" s="9"/>
-      <c r="B436" s="10">
+    <row r="436" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A436" s="8"/>
+      <c r="B436" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C436" s="11" t="s">
+      <c r="C436" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="D436" s="11" t="s">
+      <c r="D436" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="437" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A437" s="9"/>
-      <c r="B437" s="10">
+    <row r="437" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A437" s="8"/>
+      <c r="B437" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C437" s="11" t="s">
+      <c r="C437" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="D437" s="11" t="s">
+      <c r="D437" s="10" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A439" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="B439" s="8">
+        <v>450</v>
+      </c>
+      <c r="B439" s="7">
         <f>COUNTIF($B$2:$B$437,7)</f>
         <v>331</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A440" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B440" s="7">
-        <f>COUNT($B$2:$B$437,7)</f>
-        <v>437</v>
+      <c r="A440" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B440" s="16">
+        <f>COUNT($B$2:$B$437)</f>
+        <v>436</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B441" s="16">
+      <c r="A441" s="17"/>
+      <c r="B441" s="18">
         <f>B439/B440</f>
-        <v>0.75743707093821511</v>
-      </c>
-      <c r="C441" t="s">
-        <v>450</v>
+        <v>0.75917431192660545</v>
+      </c>
+      <c r="C441" s="19" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>

--- a/Arlington-vs-ISO32K-Tables.xlsx
+++ b/Arlington-vs-ISO32K-Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\share\arlington-pdf-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B343535C-42CF-4995-A422-893C8C1C9BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECA883E-D095-4E8A-B19E-E5DF4883B477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={748F34F2-9AB0-4CF9-96E1-35F4D9EE22DD}</author>
+  </authors>
+  <commentList>
+    <comment ref="C441" authorId="0" shapeId="0" xr:uid="{748F34F2-9AB0-4CF9-96E1-35F4D9EE22DD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mostly FDF and Linearization</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="469">
   <si>
     <t>Arlington</t>
   </si>
@@ -1358,9 +1376,6 @@
     <t>ICC</t>
   </si>
   <si>
-    <t>FDF</t>
-  </si>
-  <si>
     <t>Pre-defined Arlington types</t>
   </si>
   <si>
@@ -1424,10 +1439,25 @@
     <t>Semantic processing of specific strings</t>
   </si>
   <si>
-    <t>of all Tables in ISO 32000-2:2020 are encoded into Arlington PDF Model</t>
-  </si>
-  <si>
     <t>TBD - difficult to encode into Arlington???</t>
+  </si>
+  <si>
+    <t>To-Be-Done Tables</t>
+  </si>
+  <si>
+    <t>of all Tables in ISO 32000-2:2020 are currently encoded into Arlington PDF Model</t>
+  </si>
+  <si>
+    <t>TBD - FDF is not yet supported by Arlington</t>
+  </si>
+  <si>
+    <t>total target Table in ISO 32000-2:2020 coverage of Arlington PDF Model (once "TBD" tables are completed)</t>
+  </si>
+  <si>
+    <t>TBD?</t>
+  </si>
+  <si>
+    <t>In?</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1468,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1595,6 +1625,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1784,7 +1840,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1919,6 +1975,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1966,7 +2031,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1974,37 +2039,38 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="22" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -2063,6 +2129,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Peter Wyatt" id="{6331A337-20A0-419C-A71B-7F25BE4CF970}" userId="219c477c925ed508" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2360,5401 +2432,7176 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C441" dT="2022-10-30T15:47:58.58" personId="{6331A337-20A0-419C-A71B-7F25BE4CF970}" id="{748F34F2-9AB0-4CF9-96E1-35F4D9EE22DD}">
+    <text>Mostly FDF and Linearization</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D442"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C444" sqref="C444"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.84375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.15234375" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.23046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.765625" customWidth="1"/>
+    <col min="4" max="4" width="39.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.69140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="22" t="s">
+        <v>468</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9">
+        <v>453</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="23">
         <f>SEARCH(A2,C2)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9">
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" s="13" t="b">
+        <f>ISNUMBER(SEARCH("TBD", D2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="23">
         <f t="shared" ref="B3:B66" si="0">SEARCH(A3,C3)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9">
+      <c r="D3" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3" s="13" t="b">
+        <f t="shared" ref="E3:E66" si="1">ISNUMBER(SEARCH("TBD", D3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9">
+      <c r="D4" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9">
+      <c r="E7" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E8" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9">
+      <c r="E9" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D10" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E10" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E14" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E16" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9">
+      <c r="E18" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E19" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E20" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E21" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="24">
         <f>SEARCH(A22,C22)</f>
         <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E22" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E23" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E24" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E25" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E26" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E27" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E28" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E29" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E30" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E31" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E32" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9">
+      <c r="E33" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E34" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9">
+      <c r="E35" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9">
+      <c r="D36" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E36" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="6" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9">
+      <c r="E37" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="6" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E38" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E39" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="24">
         <f>SEARCH(A40,C40)</f>
         <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E40" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E41" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9">
+      <c r="E42" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="5"/>
+      <c r="B43" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D43" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E43" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E44" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E45" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E46" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E47" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E48" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E49" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9">
+      <c r="E50" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="5"/>
+      <c r="B51" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9">
+      <c r="E51" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="5"/>
+      <c r="B52" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9">
+      <c r="D52" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E52" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="5"/>
+      <c r="B53" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D53" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E53" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E54" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E55" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9">
+      <c r="E56" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="5"/>
+      <c r="B57" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E57" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9">
+      <c r="E58" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="5"/>
+      <c r="B59" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9">
+      <c r="E59" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="5"/>
+      <c r="B60" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9">
+      <c r="E60" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="5"/>
+      <c r="B61" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9">
+      <c r="E61" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="5"/>
+      <c r="B62" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D62" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E62" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E63" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E64" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E65" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9">
-        <f t="shared" ref="B67:B130" si="1">SEARCH(A67,C67)</f>
-        <v>1</v>
-      </c>
-      <c r="C67" s="10" t="s">
+      <c r="E66" s="13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="5"/>
+      <c r="B67" s="23">
+        <f t="shared" ref="B67:B130" si="2">SEARCH(A67,C67)</f>
+        <v>1</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C68" s="10" t="s">
+      <c r="D67" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E67" s="13" t="b">
+        <f t="shared" ref="E67:E130" si="3">ISNUMBER(SEARCH("TBD", D67))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="5"/>
+      <c r="B68" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="D68" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E68" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="5"/>
+      <c r="B69" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="6" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E69" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="6">
-        <f t="shared" si="1"/>
+      <c r="B70" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E70" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="6">
-        <f t="shared" si="1"/>
+      <c r="B71" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E71" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="6">
-        <f t="shared" si="1"/>
+      <c r="B72" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E72" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="6">
-        <f t="shared" si="1"/>
+      <c r="B73" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C74" s="10" t="s">
+      <c r="E73" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="5"/>
+      <c r="B74" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E74" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="6">
-        <f t="shared" si="1"/>
+      <c r="B75" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E75" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="6">
-        <f t="shared" si="1"/>
+      <c r="B76" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="8"/>
-      <c r="B77" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="E76" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="5"/>
+      <c r="B77" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E77" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="6">
-        <f t="shared" si="1"/>
+      <c r="B78" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E78" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="6">
-        <f t="shared" si="1"/>
+      <c r="B79" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E79" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="6">
-        <f t="shared" si="1"/>
+      <c r="B80" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E80" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="6">
-        <f t="shared" si="1"/>
+      <c r="B81" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E81" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="6">
-        <f t="shared" si="1"/>
+      <c r="B82" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E82" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="6">
-        <f t="shared" si="1"/>
+      <c r="B83" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E83" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="6">
-        <f t="shared" si="1"/>
+      <c r="B84" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="8"/>
-      <c r="B85" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C85" s="10" t="s">
+      <c r="E84" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="5"/>
+      <c r="B85" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="8"/>
-      <c r="B86" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C86" s="10" t="s">
+      <c r="D85" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E85" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="5"/>
+      <c r="B86" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="8"/>
-      <c r="B87" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C87" s="10" t="s">
+      <c r="D86" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E86" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="5"/>
+      <c r="B87" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E87" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="6">
-        <f t="shared" si="1"/>
+      <c r="B88" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C89" s="13" t="s">
+      <c r="E88" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="7"/>
+      <c r="B89" s="25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D89" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D89" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E89" s="14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="6">
-        <f t="shared" si="1"/>
+      <c r="B90" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="8"/>
-      <c r="B91" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="E90" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="5"/>
+      <c r="B91" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="8"/>
-      <c r="B92" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C92" s="10" t="s">
+      <c r="E91" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="5"/>
+      <c r="B92" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="8"/>
-      <c r="B93" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C93" s="10" t="s">
+      <c r="E92" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="5"/>
+      <c r="B93" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E93" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="6">
-        <f t="shared" si="1"/>
+      <c r="B94" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E94" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="6">
-        <f t="shared" si="1"/>
+      <c r="B95" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E95" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="6">
-        <f t="shared" si="1"/>
+      <c r="B96" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E96" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="6">
-        <f t="shared" si="1"/>
+      <c r="B97" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E97" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="6">
-        <f t="shared" si="1"/>
+      <c r="B98" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E98" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="6">
-        <f t="shared" si="1"/>
+      <c r="B99" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E99" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="6">
-        <f t="shared" si="1"/>
+      <c r="B100" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E100" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="6">
-        <f t="shared" si="1"/>
+      <c r="B101" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E101" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="6">
-        <f t="shared" si="1"/>
+      <c r="B102" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="8"/>
-      <c r="B103" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C103" s="10" t="s">
+      <c r="E102" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="5"/>
+      <c r="B103" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D103" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="8"/>
-      <c r="B104" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C104" s="10" t="s">
+      <c r="D103" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E103" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="5"/>
+      <c r="B104" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="8"/>
-      <c r="B105" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C105" s="10" t="s">
+      <c r="E104" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="5"/>
+      <c r="B105" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="8"/>
-      <c r="B106" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C106" s="10" t="s">
+      <c r="E105" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="5"/>
+      <c r="B106" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="8"/>
-      <c r="B107" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C107" s="10" t="s">
+      <c r="E106" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="5"/>
+      <c r="B107" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="8"/>
-      <c r="B108" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C108" s="10" t="s">
+      <c r="E107" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="5"/>
+      <c r="B108" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="8"/>
-      <c r="B109" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C109" s="10" t="s">
+      <c r="E108" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="5"/>
+      <c r="B109" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D109" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E109" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="6">
-        <f t="shared" si="1"/>
+      <c r="B110" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E110" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" s="6">
-        <f t="shared" si="1"/>
+      <c r="B111" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="8"/>
-      <c r="B112" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C112" s="10" t="s">
+      <c r="E111" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="5"/>
+      <c r="B112" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E112" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="6">
-        <f t="shared" si="1"/>
+      <c r="B113" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="8"/>
-      <c r="B114" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C114" s="10" t="s">
+      <c r="E113" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="5"/>
+      <c r="B114" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D114" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D114" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E114" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="6">
-        <f t="shared" si="1"/>
+      <c r="B115" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E115" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="6">
-        <f t="shared" si="1"/>
+      <c r="B116" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E116" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="6">
-        <f t="shared" si="1"/>
+      <c r="B117" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="8"/>
-      <c r="B118" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C118" s="10" t="s">
+      <c r="E117" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="5"/>
+      <c r="B118" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D118" s="10" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D118" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E118" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="6">
-        <f t="shared" si="1"/>
+      <c r="B119" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E119" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="6">
-        <f t="shared" si="1"/>
+      <c r="B120" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E120" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="6">
-        <f t="shared" si="1"/>
+      <c r="B121" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E121" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="6">
-        <f t="shared" si="1"/>
+      <c r="B122" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E122" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="6">
-        <f t="shared" si="1"/>
+      <c r="B123" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="11"/>
-      <c r="B124" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C124" s="13" t="s">
+      <c r="E123" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="7"/>
+      <c r="B124" s="25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D124" s="14" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D124" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E124" s="14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="6">
-        <f t="shared" si="1"/>
+      <c r="B125" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E125" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="6">
-        <f t="shared" si="1"/>
+      <c r="B126" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="8"/>
-      <c r="B127" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C127" s="10" t="s">
+      <c r="E126" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="5"/>
+      <c r="B127" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D127" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="8"/>
-      <c r="B128" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C128" s="10" t="s">
+      <c r="D127" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E127" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="5"/>
+      <c r="B128" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D128" s="10" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D128" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E128" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" s="6">
-        <f t="shared" si="1"/>
+      <c r="B129" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E129" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" s="6">
-        <f t="shared" si="1"/>
+      <c r="B130" s="24">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E130" s="13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="6">
-        <f t="shared" ref="B131:B194" si="2">SEARCH(A131,C131)</f>
+      <c r="B131" s="24">
+        <f t="shared" ref="B131:B194" si="4">SEARCH(A131,C131)</f>
         <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E131" s="13" t="b">
+        <f t="shared" ref="E131:E194" si="5">ISNUMBER(SEARCH("TBD", D131))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>131</v>
       </c>
-      <c r="B132" s="6">
-        <f t="shared" si="2"/>
+      <c r="B132" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E132" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" s="6">
-        <f t="shared" si="2"/>
+      <c r="B133" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="8"/>
-      <c r="B134" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C134" s="10" t="s">
+      <c r="E133" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="5"/>
+      <c r="B134" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D134" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D134" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E134" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" s="6">
-        <f t="shared" si="2"/>
+      <c r="B135" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E135" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="6">
-        <f t="shared" si="2"/>
+      <c r="B136" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="8"/>
-      <c r="B137" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C137" s="10" t="s">
+      <c r="E136" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="5"/>
+      <c r="B137" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D137" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="8"/>
-      <c r="B138" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C138" s="10" t="s">
+      <c r="D137" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E137" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="5"/>
+      <c r="B138" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D138" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="8"/>
-      <c r="B139" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C139" s="10" t="s">
+      <c r="D138" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E138" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="5"/>
+      <c r="B139" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D139" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="8"/>
-      <c r="B140" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C140" s="10" t="s">
+      <c r="D139" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E139" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="5"/>
+      <c r="B140" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D140" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="8"/>
-      <c r="B141" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C141" s="10" t="s">
+      <c r="D140" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E140" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="5"/>
+      <c r="B141" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D141" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="8"/>
-      <c r="B142" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C142" s="10" t="s">
+      <c r="D141" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E141" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="5"/>
+      <c r="B142" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D142" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D142" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E142" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>142</v>
       </c>
-      <c r="B143" s="6">
-        <f t="shared" si="2"/>
+      <c r="B143" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E143" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>143</v>
       </c>
-      <c r="B144" s="6">
-        <f t="shared" si="2"/>
+      <c r="B144" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E144" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>144</v>
       </c>
-      <c r="B145" s="6">
-        <f t="shared" si="2"/>
+      <c r="B145" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E145" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" s="6">
-        <f t="shared" si="2"/>
+      <c r="B146" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="8"/>
-      <c r="B147" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C147" s="10" t="s">
+      <c r="E146" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="5"/>
+      <c r="B147" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D147" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D147" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E147" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B148" s="6">
-        <f t="shared" si="2"/>
+      <c r="B148" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E148" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" s="6">
-        <f t="shared" si="2"/>
+      <c r="B149" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E149" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>149</v>
       </c>
-      <c r="B150" s="6">
-        <f t="shared" si="2"/>
+      <c r="B150" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E150" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>150</v>
       </c>
-      <c r="B151" s="6">
-        <f t="shared" si="2"/>
+      <c r="B151" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E151" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" s="6">
-        <f t="shared" si="2"/>
+      <c r="B152" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E152" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" s="6">
-        <f t="shared" si="2"/>
+      <c r="B153" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E153" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" s="6">
-        <f t="shared" si="2"/>
+      <c r="B154" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E154" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>154</v>
       </c>
-      <c r="B155" s="6">
-        <f t="shared" si="2"/>
+      <c r="B155" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E155" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>155</v>
       </c>
-      <c r="B156" s="6">
-        <f t="shared" si="2"/>
+      <c r="B156" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E156" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>156</v>
       </c>
-      <c r="B157" s="6">
-        <f t="shared" si="2"/>
+      <c r="B157" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E157" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" s="6">
-        <f t="shared" si="2"/>
+      <c r="B158" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E158" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" s="6">
-        <f t="shared" si="2"/>
+      <c r="B159" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E159" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>159</v>
       </c>
-      <c r="B160" s="6">
-        <f t="shared" si="2"/>
+      <c r="B160" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E160" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" s="6">
-        <f t="shared" si="2"/>
+      <c r="B161" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E161" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" s="6">
-        <f t="shared" si="2"/>
+      <c r="B162" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E162" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>162</v>
       </c>
-      <c r="B163" s="6">
-        <f t="shared" si="2"/>
+      <c r="B163" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E163" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>163</v>
       </c>
-      <c r="B164" s="6">
-        <f t="shared" si="2"/>
+      <c r="B164" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E164" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>164</v>
       </c>
-      <c r="B165" s="6">
-        <f t="shared" si="2"/>
+      <c r="B165" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E165" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" s="6">
-        <f t="shared" si="2"/>
+      <c r="B166" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E166" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>166</v>
       </c>
-      <c r="B167" s="6">
-        <f t="shared" si="2"/>
+      <c r="B167" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E167" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>167</v>
       </c>
-      <c r="B168" s="6">
-        <f t="shared" si="2"/>
+      <c r="B168" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E168" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" s="6">
-        <f t="shared" si="2"/>
+      <c r="B169" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E169" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>169</v>
       </c>
-      <c r="B170" s="6">
-        <f t="shared" si="2"/>
+      <c r="B170" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E170" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" s="6">
-        <f t="shared" si="2"/>
+      <c r="B171" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="8"/>
-      <c r="B172" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C172" s="10" t="s">
+      <c r="E171" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="5"/>
+      <c r="B172" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D172" s="10" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D172" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E172" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>172</v>
       </c>
-      <c r="B173" s="6">
-        <f t="shared" si="2"/>
+      <c r="B173" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E173" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>173</v>
       </c>
-      <c r="B174" s="6">
-        <f t="shared" si="2"/>
+      <c r="B174" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E174" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>174</v>
       </c>
-      <c r="B175" s="6">
-        <f t="shared" si="2"/>
+      <c r="B175" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E175" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>175</v>
       </c>
-      <c r="B176" s="6">
-        <f t="shared" si="2"/>
+      <c r="B176" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E176" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>176</v>
       </c>
-      <c r="B177" s="6">
-        <f t="shared" si="2"/>
+      <c r="B177" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E177" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>177</v>
       </c>
-      <c r="B178" s="6">
-        <f t="shared" si="2"/>
+      <c r="B178" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E178" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>178</v>
       </c>
-      <c r="B179" s="6">
-        <f t="shared" si="2"/>
+      <c r="B179" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E179" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>179</v>
       </c>
-      <c r="B180" s="6">
-        <f t="shared" si="2"/>
+      <c r="B180" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E180" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>180</v>
       </c>
-      <c r="B181" s="6">
-        <f t="shared" si="2"/>
+      <c r="B181" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E181" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" s="6">
-        <f t="shared" si="2"/>
+      <c r="B182" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E182" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" s="6">
-        <f t="shared" si="2"/>
+      <c r="B183" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E183" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184" s="6">
-        <f t="shared" si="2"/>
+      <c r="B184" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E184" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" s="6">
-        <f t="shared" si="2"/>
+      <c r="B185" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E185" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" s="6">
-        <f t="shared" si="2"/>
+      <c r="B186" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E186" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" s="6">
-        <f t="shared" si="2"/>
+      <c r="B187" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E187" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>187</v>
       </c>
-      <c r="B188" s="6">
-        <f t="shared" si="2"/>
+      <c r="B188" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E188" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" s="6">
-        <f t="shared" si="2"/>
+      <c r="B189" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E189" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" s="6">
-        <f t="shared" si="2"/>
+      <c r="B190" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E190" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" s="6">
-        <f t="shared" si="2"/>
+      <c r="B191" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E191" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>191</v>
       </c>
-      <c r="B192" s="6">
-        <f t="shared" si="2"/>
+      <c r="B192" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E192" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" s="6">
-        <f t="shared" si="2"/>
+      <c r="B193" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E193" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" s="6">
-        <f t="shared" si="2"/>
+      <c r="B194" s="24">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E194" s="13" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>194</v>
       </c>
-      <c r="B195" s="6">
-        <f t="shared" ref="B195:B258" si="3">SEARCH(A195,C195)</f>
+      <c r="B195" s="24">
+        <f t="shared" ref="B195:B258" si="6">SEARCH(A195,C195)</f>
         <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E195" s="13" t="b">
+        <f t="shared" ref="E195:E258" si="7">ISNUMBER(SEARCH("TBD", D195))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" s="6">
-        <f t="shared" si="3"/>
+      <c r="B196" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E196" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>196</v>
       </c>
-      <c r="B197" s="6">
-        <f t="shared" si="3"/>
+      <c r="B197" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E197" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" s="6">
-        <f t="shared" si="3"/>
+      <c r="B198" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E198" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>198</v>
       </c>
-      <c r="B199" s="6">
-        <f t="shared" si="3"/>
+      <c r="B199" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E199" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>199</v>
       </c>
-      <c r="B200" s="6">
-        <f t="shared" si="3"/>
+      <c r="B200" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E200" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>200</v>
       </c>
-      <c r="B201" s="6">
-        <f t="shared" si="3"/>
+      <c r="B201" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E201" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>201</v>
       </c>
-      <c r="B202" s="6">
-        <f t="shared" si="3"/>
+      <c r="B202" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E202" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>202</v>
       </c>
-      <c r="B203" s="6">
-        <f t="shared" si="3"/>
+      <c r="B203" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E203" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>203</v>
       </c>
-      <c r="B204" s="6">
-        <f t="shared" si="3"/>
+      <c r="B204" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E204" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>204</v>
       </c>
-      <c r="B205" s="6">
-        <f t="shared" si="3"/>
+      <c r="B205" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E205" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>205</v>
       </c>
-      <c r="B206" s="6">
-        <f t="shared" si="3"/>
+      <c r="B206" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E206" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>206</v>
       </c>
-      <c r="B207" s="6">
-        <f t="shared" si="3"/>
+      <c r="B207" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E207" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>207</v>
       </c>
-      <c r="B208" s="6">
-        <f t="shared" si="3"/>
+      <c r="B208" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E208" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>208</v>
       </c>
-      <c r="B209" s="6">
-        <f t="shared" si="3"/>
+      <c r="B209" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E209" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>209</v>
       </c>
-      <c r="B210" s="6">
-        <f t="shared" si="3"/>
+      <c r="B210" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E210" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>210</v>
       </c>
-      <c r="B211" s="6">
-        <f t="shared" si="3"/>
+      <c r="B211" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E211" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>211</v>
       </c>
-      <c r="B212" s="6">
-        <f t="shared" si="3"/>
+      <c r="B212" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E212" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>212</v>
       </c>
-      <c r="B213" s="6">
-        <f t="shared" si="3"/>
+      <c r="B213" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E213" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>213</v>
       </c>
-      <c r="B214" s="6">
-        <f t="shared" si="3"/>
+      <c r="B214" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E214" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>214</v>
       </c>
-      <c r="B215" s="6">
-        <f t="shared" si="3"/>
+      <c r="B215" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E215" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>215</v>
       </c>
-      <c r="B216" s="6">
-        <f t="shared" si="3"/>
+      <c r="B216" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E216" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>216</v>
       </c>
-      <c r="B217" s="6">
-        <f t="shared" si="3"/>
+      <c r="B217" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E217" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>217</v>
       </c>
-      <c r="B218" s="6">
-        <f t="shared" si="3"/>
+      <c r="B218" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E218" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>218</v>
       </c>
-      <c r="B219" s="6">
-        <f t="shared" si="3"/>
+      <c r="B219" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E219" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>219</v>
       </c>
-      <c r="B220" s="6">
-        <f t="shared" si="3"/>
+      <c r="B220" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E220" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>220</v>
       </c>
-      <c r="B221" s="6">
-        <f t="shared" si="3"/>
+      <c r="B221" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E221" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>221</v>
       </c>
-      <c r="B222" s="6">
-        <f t="shared" si="3"/>
+      <c r="B222" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E222" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>222</v>
       </c>
-      <c r="B223" s="6">
-        <f t="shared" si="3"/>
+      <c r="B223" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E223" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>223</v>
       </c>
-      <c r="B224" s="6">
-        <f t="shared" si="3"/>
+      <c r="B224" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E224" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>224</v>
       </c>
-      <c r="B225" s="6">
-        <f t="shared" si="3"/>
+      <c r="B225" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E225" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>225</v>
       </c>
-      <c r="B226" s="6">
-        <f t="shared" si="3"/>
+      <c r="B226" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E226" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>226</v>
       </c>
-      <c r="B227" s="6">
-        <f t="shared" si="3"/>
+      <c r="B227" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E227" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>227</v>
       </c>
-      <c r="B228" s="6">
-        <f t="shared" si="3"/>
+      <c r="B228" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E228" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>228</v>
       </c>
-      <c r="B229" s="6">
-        <f t="shared" si="3"/>
+      <c r="B229" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E229" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>229</v>
       </c>
-      <c r="B230" s="6">
-        <f t="shared" si="3"/>
+      <c r="B230" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E230" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>230</v>
       </c>
-      <c r="B231" s="6">
-        <f t="shared" si="3"/>
+      <c r="B231" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E231" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>231</v>
       </c>
-      <c r="B232" s="6">
-        <f t="shared" si="3"/>
+      <c r="B232" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E232" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>232</v>
       </c>
-      <c r="B233" s="6">
-        <f t="shared" si="3"/>
+      <c r="B233" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E233" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>233</v>
       </c>
-      <c r="B234" s="6">
-        <f t="shared" si="3"/>
+      <c r="B234" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E234" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>234</v>
       </c>
-      <c r="B235" s="6">
-        <f t="shared" si="3"/>
+      <c r="B235" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E235" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>235</v>
       </c>
-      <c r="B236" s="6">
-        <f t="shared" si="3"/>
+      <c r="B236" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E236" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>236</v>
       </c>
-      <c r="B237" s="6">
-        <f t="shared" si="3"/>
+      <c r="B237" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E237" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>237</v>
       </c>
-      <c r="B238" s="6">
-        <f t="shared" si="3"/>
+      <c r="B238" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E238" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>238</v>
       </c>
-      <c r="B239" s="6">
-        <f t="shared" si="3"/>
+      <c r="B239" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E239" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>239</v>
       </c>
-      <c r="B240" s="6">
-        <f t="shared" si="3"/>
+      <c r="B240" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E240" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>240</v>
       </c>
-      <c r="B241" s="6">
-        <f t="shared" si="3"/>
+      <c r="B241" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E241" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>241</v>
       </c>
-      <c r="B242" s="6">
-        <f t="shared" si="3"/>
+      <c r="B242" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E242" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>242</v>
       </c>
-      <c r="B243" s="6">
-        <f t="shared" si="3"/>
+      <c r="B243" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E243" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>243</v>
       </c>
-      <c r="B244" s="6">
-        <f t="shared" si="3"/>
+      <c r="B244" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="8"/>
-      <c r="B245" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C245" s="10" t="s">
+      <c r="E244" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="18"/>
+      <c r="B245" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C245" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="D245" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="8"/>
-      <c r="B246" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C246" s="10" t="s">
+      <c r="D245" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E245" s="14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="18"/>
+      <c r="B246" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C246" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D246" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="8"/>
-      <c r="B247" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C247" s="10" t="s">
+      <c r="D246" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E246" s="14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="18"/>
+      <c r="B247" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C247" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="D247" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="8"/>
-      <c r="B248" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C248" s="10" t="s">
+      <c r="D247" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E247" s="14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="18"/>
+      <c r="B248" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C248" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="D248" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="8"/>
-      <c r="B249" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C249" s="10" t="s">
+      <c r="D248" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E248" s="14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="18"/>
+      <c r="B249" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C249" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="D249" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="8"/>
-      <c r="B250" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C250" s="10" t="s">
+      <c r="D249" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E249" s="14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A250" s="18"/>
+      <c r="B250" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C250" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="D250" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D250" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E250" s="14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>250</v>
       </c>
-      <c r="B251" s="6">
-        <f t="shared" si="3"/>
+      <c r="B251" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="8"/>
-      <c r="B252" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C252" s="10" t="s">
+      <c r="E251" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A252" s="18"/>
+      <c r="B252" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C252" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="D252" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="8"/>
-      <c r="B253" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C253" s="10" t="s">
+      <c r="D252" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E252" s="14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="18"/>
+      <c r="B253" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C253" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="D253" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="8"/>
-      <c r="B254" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C254" s="10" t="s">
+      <c r="D253" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E253" s="14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="18"/>
+      <c r="B254" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C254" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D254" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="8"/>
-      <c r="B255" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C255" s="10" t="s">
+      <c r="D254" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E254" s="14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="18"/>
+      <c r="B255" s="26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C255" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="D255" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D255" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E255" s="14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>255</v>
       </c>
-      <c r="B256" s="6">
-        <f t="shared" si="3"/>
+      <c r="B256" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E256" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>256</v>
       </c>
-      <c r="B257" s="6">
-        <f t="shared" si="3"/>
+      <c r="B257" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E257" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>257</v>
       </c>
-      <c r="B258" s="6">
-        <f t="shared" si="3"/>
+      <c r="B258" s="24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E258" s="13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>258</v>
       </c>
-      <c r="B259" s="6">
-        <f t="shared" ref="B259:B322" si="4">SEARCH(A259,C259)</f>
+      <c r="B259" s="24">
+        <f t="shared" ref="B259:B322" si="8">SEARCH(A259,C259)</f>
         <v>7</v>
       </c>
       <c r="C259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E259" s="13" t="b">
+        <f t="shared" ref="E259:E322" si="9">ISNUMBER(SEARCH("TBD", D259))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>259</v>
       </c>
-      <c r="B260" s="6">
-        <f t="shared" si="4"/>
+      <c r="B260" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E260" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>260</v>
       </c>
-      <c r="B261" s="6">
-        <f t="shared" si="4"/>
+      <c r="B261" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E261" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>261</v>
       </c>
-      <c r="B262" s="6">
-        <f t="shared" si="4"/>
+      <c r="B262" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E262" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>262</v>
       </c>
-      <c r="B263" s="6">
-        <f t="shared" si="4"/>
+      <c r="B263" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E263" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>263</v>
       </c>
-      <c r="B264" s="6">
-        <f t="shared" si="4"/>
+      <c r="B264" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E264" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>264</v>
       </c>
-      <c r="B265" s="6">
-        <f t="shared" si="4"/>
+      <c r="B265" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E265" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>265</v>
       </c>
-      <c r="B266" s="6">
-        <f t="shared" si="4"/>
+      <c r="B266" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E266" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>266</v>
       </c>
-      <c r="B267" s="6">
-        <f t="shared" si="4"/>
+      <c r="B267" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E267" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>267</v>
       </c>
-      <c r="B268" s="6">
-        <f t="shared" si="4"/>
+      <c r="B268" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E268" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>268</v>
       </c>
-      <c r="B269" s="6">
-        <f t="shared" si="4"/>
+      <c r="B269" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E269" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>269</v>
       </c>
-      <c r="B270" s="6">
-        <f t="shared" si="4"/>
+      <c r="B270" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E270" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>270</v>
       </c>
-      <c r="B271" s="6">
-        <f t="shared" si="4"/>
+      <c r="B271" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E271" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>271</v>
       </c>
-      <c r="B272" s="6">
-        <f t="shared" si="4"/>
+      <c r="B272" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E272" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>272</v>
       </c>
-      <c r="B273" s="6">
-        <f t="shared" si="4"/>
+      <c r="B273" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E273" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>273</v>
       </c>
-      <c r="B274" s="6">
-        <f t="shared" si="4"/>
+      <c r="B274" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E274" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>274</v>
       </c>
-      <c r="B275" s="6">
-        <f t="shared" si="4"/>
+      <c r="B275" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E275" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>275</v>
       </c>
-      <c r="B276" s="6">
-        <f t="shared" si="4"/>
+      <c r="B276" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E276" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>276</v>
       </c>
-      <c r="B277" s="6">
-        <f t="shared" si="4"/>
+      <c r="B277" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E277" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>277</v>
       </c>
-      <c r="B278" s="6">
-        <f t="shared" si="4"/>
+      <c r="B278" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E278" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>278</v>
       </c>
-      <c r="B279" s="6">
-        <f t="shared" si="4"/>
+      <c r="B279" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E279" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>279</v>
       </c>
-      <c r="B280" s="6">
-        <f t="shared" si="4"/>
+      <c r="B280" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E280" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>280</v>
       </c>
-      <c r="B281" s="6">
-        <f t="shared" si="4"/>
+      <c r="B281" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E281" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>281</v>
       </c>
-      <c r="B282" s="6">
-        <f t="shared" si="4"/>
+      <c r="B282" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E282" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>282</v>
       </c>
-      <c r="B283" s="6">
-        <f t="shared" si="4"/>
+      <c r="B283" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E283" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>283</v>
       </c>
-      <c r="B284" s="6">
-        <f t="shared" si="4"/>
+      <c r="B284" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E284" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>284</v>
       </c>
-      <c r="B285" s="6">
-        <f t="shared" si="4"/>
+      <c r="B285" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E285" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>285</v>
       </c>
-      <c r="B286" s="6">
-        <f t="shared" si="4"/>
+      <c r="B286" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E286" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>286</v>
       </c>
-      <c r="B287" s="6">
-        <f t="shared" si="4"/>
+      <c r="B287" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E287" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>287</v>
       </c>
-      <c r="B288" s="6">
-        <f t="shared" si="4"/>
+      <c r="B288" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E288" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>288</v>
       </c>
-      <c r="B289" s="6">
-        <f t="shared" si="4"/>
+      <c r="B289" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E289" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>289</v>
       </c>
-      <c r="B290" s="6">
-        <f t="shared" si="4"/>
+      <c r="B290" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E290" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>290</v>
       </c>
-      <c r="B291" s="6">
-        <f t="shared" si="4"/>
+      <c r="B291" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E291" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>291</v>
       </c>
-      <c r="B292" s="6">
-        <f t="shared" si="4"/>
+      <c r="B292" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E292" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>292</v>
       </c>
-      <c r="B293" s="6">
-        <f t="shared" si="4"/>
+      <c r="B293" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E293" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>293</v>
       </c>
-      <c r="B294" s="6">
-        <f t="shared" si="4"/>
+      <c r="B294" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E294" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>294</v>
       </c>
-      <c r="B295" s="6">
-        <f t="shared" si="4"/>
+      <c r="B295" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E295" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>295</v>
       </c>
-      <c r="B296" s="6">
-        <f t="shared" si="4"/>
+      <c r="B296" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E296" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>296</v>
       </c>
-      <c r="B297" s="6">
-        <f t="shared" si="4"/>
+      <c r="B297" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E297" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>297</v>
       </c>
-      <c r="B298" s="6">
-        <f t="shared" si="4"/>
+      <c r="B298" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E298" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>298</v>
       </c>
-      <c r="B299" s="6">
-        <f t="shared" si="4"/>
+      <c r="B299" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E299" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>299</v>
       </c>
-      <c r="B300" s="6">
-        <f t="shared" si="4"/>
+      <c r="B300" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E300" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>300</v>
       </c>
-      <c r="B301" s="6">
-        <f t="shared" si="4"/>
+      <c r="B301" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C301" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E301" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>301</v>
       </c>
-      <c r="B302" s="6">
-        <f t="shared" si="4"/>
+      <c r="B302" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C302" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E302" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>302</v>
       </c>
-      <c r="B303" s="6">
-        <f t="shared" si="4"/>
+      <c r="B303" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C303" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E303" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>303</v>
       </c>
-      <c r="B304" s="6">
-        <f t="shared" si="4"/>
+      <c r="B304" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C304" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E304" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>304</v>
       </c>
-      <c r="B305" s="6">
-        <f t="shared" si="4"/>
+      <c r="B305" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C305" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E305" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>305</v>
       </c>
-      <c r="B306" s="6">
-        <f t="shared" si="4"/>
+      <c r="B306" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C306" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E306" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>306</v>
       </c>
-      <c r="B307" s="6">
-        <f t="shared" si="4"/>
+      <c r="B307" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C307" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E307" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>307</v>
       </c>
-      <c r="B308" s="6">
-        <f t="shared" si="4"/>
+      <c r="B308" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C308" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E308" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>308</v>
       </c>
-      <c r="B309" s="6">
-        <f t="shared" si="4"/>
+      <c r="B309" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C309" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E309" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>309</v>
       </c>
-      <c r="B310" s="6">
-        <f t="shared" si="4"/>
+      <c r="B310" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C310" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E310" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>310</v>
       </c>
-      <c r="B311" s="6">
-        <f t="shared" si="4"/>
+      <c r="B311" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C311" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E311" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>311</v>
       </c>
-      <c r="B312" s="6">
-        <f t="shared" si="4"/>
+      <c r="B312" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C312" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E312" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>312</v>
       </c>
-      <c r="B313" s="6">
-        <f t="shared" si="4"/>
+      <c r="B313" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C313" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E313" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>313</v>
       </c>
-      <c r="B314" s="6">
-        <f t="shared" si="4"/>
+      <c r="B314" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C314" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E314" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>314</v>
       </c>
-      <c r="B315" s="6">
-        <f t="shared" si="4"/>
+      <c r="B315" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C315" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E315" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>315</v>
       </c>
-      <c r="B316" s="6">
-        <f t="shared" si="4"/>
+      <c r="B316" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C316" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E316" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>316</v>
       </c>
-      <c r="B317" s="6">
-        <f t="shared" si="4"/>
+      <c r="B317" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C317" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E317" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>317</v>
       </c>
-      <c r="B318" s="6">
-        <f t="shared" si="4"/>
+      <c r="B318" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C318" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E318" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>318</v>
       </c>
-      <c r="B319" s="6">
-        <f t="shared" si="4"/>
+      <c r="B319" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C319" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E319" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>319</v>
       </c>
-      <c r="B320" s="6">
-        <f t="shared" si="4"/>
+      <c r="B320" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C320" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E320" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>320</v>
       </c>
-      <c r="B321" s="6">
-        <f t="shared" si="4"/>
+      <c r="B321" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C321" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E321" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>321</v>
       </c>
-      <c r="B322" s="6">
-        <f t="shared" si="4"/>
+      <c r="B322" s="24">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C322" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E322" s="13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>322</v>
       </c>
-      <c r="B323" s="6">
-        <f t="shared" ref="B323:B386" si="5">SEARCH(A323,C323)</f>
+      <c r="B323" s="24">
+        <f t="shared" ref="B323:B386" si="10">SEARCH(A323,C323)</f>
         <v>7</v>
       </c>
       <c r="C323" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E323" s="13" t="b">
+        <f t="shared" ref="E323:E386" si="11">ISNUMBER(SEARCH("TBD", D323))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>323</v>
       </c>
-      <c r="B324" s="6">
-        <f t="shared" si="5"/>
+      <c r="B324" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C324" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E324" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>324</v>
       </c>
-      <c r="B325" s="6">
-        <f t="shared" si="5"/>
+      <c r="B325" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C325" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E325" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>325</v>
       </c>
-      <c r="B326" s="6">
-        <f t="shared" si="5"/>
+      <c r="B326" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C326" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E326" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>326</v>
       </c>
-      <c r="B327" s="6">
-        <f t="shared" si="5"/>
+      <c r="B327" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C327" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E327" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>327</v>
       </c>
-      <c r="B328" s="6">
-        <f t="shared" si="5"/>
+      <c r="B328" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C328" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E328" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>328</v>
       </c>
-      <c r="B329" s="6">
-        <f t="shared" si="5"/>
+      <c r="B329" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C329" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E329" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <v>329</v>
       </c>
-      <c r="B330" s="6">
-        <f t="shared" si="5"/>
+      <c r="B330" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C330" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E330" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>330</v>
       </c>
-      <c r="B331" s="6">
-        <f t="shared" si="5"/>
+      <c r="B331" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C331" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E331" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>331</v>
       </c>
-      <c r="B332" s="6">
-        <f t="shared" si="5"/>
+      <c r="B332" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C332" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E332" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>332</v>
       </c>
-      <c r="B333" s="6">
-        <f t="shared" si="5"/>
+      <c r="B333" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C333" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E333" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>333</v>
       </c>
-      <c r="B334" s="6">
-        <f t="shared" si="5"/>
+      <c r="B334" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C334" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E334" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>334</v>
       </c>
-      <c r="B335" s="6">
-        <f t="shared" si="5"/>
+      <c r="B335" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C335" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E335" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>335</v>
       </c>
-      <c r="B336" s="6">
-        <f t="shared" si="5"/>
+      <c r="B336" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C336" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E336" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <v>336</v>
       </c>
-      <c r="B337" s="6">
-        <f t="shared" si="5"/>
+      <c r="B337" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C337" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E337" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A338" s="2">
         <v>337</v>
       </c>
-      <c r="B338" s="6">
-        <f t="shared" si="5"/>
+      <c r="B338" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C338" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E338" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A339" s="2">
         <v>338</v>
       </c>
-      <c r="B339" s="6">
-        <f t="shared" si="5"/>
+      <c r="B339" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C339" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E339" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <v>339</v>
       </c>
-      <c r="B340" s="6">
-        <f t="shared" si="5"/>
+      <c r="B340" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C340" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E340" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <v>340</v>
       </c>
-      <c r="B341" s="6">
-        <f t="shared" si="5"/>
+      <c r="B341" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C341" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E341" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <v>341</v>
       </c>
-      <c r="B342" s="6">
-        <f t="shared" si="5"/>
+      <c r="B342" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C342" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E342" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <v>342</v>
       </c>
-      <c r="B343" s="6">
-        <f t="shared" si="5"/>
+      <c r="B343" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C343" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E343" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <v>343</v>
       </c>
-      <c r="B344" s="6">
-        <f t="shared" si="5"/>
+      <c r="B344" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C344" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E344" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <v>344</v>
       </c>
-      <c r="B345" s="6">
-        <f t="shared" si="5"/>
+      <c r="B345" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C345" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E345" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <v>345</v>
       </c>
-      <c r="B346" s="6">
-        <f t="shared" si="5"/>
+      <c r="B346" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C346" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E346" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <v>346</v>
       </c>
-      <c r="B347" s="6">
-        <f t="shared" si="5"/>
+      <c r="B347" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C347" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E347" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <v>347</v>
       </c>
-      <c r="B348" s="6">
-        <f t="shared" si="5"/>
+      <c r="B348" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C348" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A349" s="8"/>
-      <c r="B349" s="9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C349" s="10" t="s">
+      <c r="E348" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A349" s="5"/>
+      <c r="B349" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C349" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D349" s="10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D349" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E349" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <v>349</v>
       </c>
-      <c r="B350" s="6">
-        <f t="shared" si="5"/>
+      <c r="B350" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C350" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E350" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <v>350</v>
       </c>
-      <c r="B351" s="6">
-        <f t="shared" si="5"/>
+      <c r="B351" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C351" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E351" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <v>351</v>
       </c>
-      <c r="B352" s="6">
-        <f t="shared" si="5"/>
+      <c r="B352" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C352" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A353" s="8"/>
-      <c r="B353" s="9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C353" s="10" t="s">
+      <c r="E352" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A353" s="5"/>
+      <c r="B353" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C353" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D353" s="10" t="s">
+      <c r="D353" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E353" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <v>353</v>
       </c>
-      <c r="B354" s="6">
-        <f t="shared" si="5"/>
+      <c r="B354" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C354" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E354" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <v>354</v>
       </c>
-      <c r="B355" s="6">
-        <f t="shared" si="5"/>
+      <c r="B355" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C355" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E355" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <v>355</v>
       </c>
-      <c r="B356" s="6">
-        <f t="shared" si="5"/>
+      <c r="B356" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C356" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E356" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <v>356</v>
       </c>
-      <c r="B357" s="6">
-        <f t="shared" si="5"/>
+      <c r="B357" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C357" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E357" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <v>357</v>
       </c>
-      <c r="B358" s="6">
-        <f t="shared" si="5"/>
+      <c r="B358" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C358" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E358" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <v>358</v>
       </c>
-      <c r="B359" s="6">
-        <f t="shared" si="5"/>
+      <c r="B359" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C359" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E359" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <v>359</v>
       </c>
-      <c r="B360" s="6">
-        <f t="shared" si="5"/>
+      <c r="B360" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C360" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E360" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <v>360</v>
       </c>
-      <c r="B361" s="6">
-        <f t="shared" si="5"/>
+      <c r="B361" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C361" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E361" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <v>361</v>
       </c>
-      <c r="B362" s="6">
-        <f t="shared" si="5"/>
+      <c r="B362" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C362" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E362" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <v>362</v>
       </c>
-      <c r="B363" s="6">
-        <f t="shared" si="5"/>
+      <c r="B363" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C363" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E363" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <v>363</v>
       </c>
-      <c r="B364" s="6">
-        <f t="shared" si="5"/>
+      <c r="B364" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C364" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A365" s="11"/>
-      <c r="B365" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C365" s="13" t="s">
+      <c r="E364" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A365" s="7"/>
+      <c r="B365" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C365" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D365" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A366" s="11"/>
-      <c r="B366" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C366" s="13" t="s">
+      <c r="D365" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E365" s="14" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A366" s="7"/>
+      <c r="B366" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C366" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D366" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A367" s="11"/>
-      <c r="B367" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C367" s="13" t="s">
+      <c r="D366" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E366" s="14" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A367" s="7"/>
+      <c r="B367" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C367" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D367" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A368" s="11"/>
-      <c r="B368" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C368" s="13" t="s">
+      <c r="D367" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E367" s="14" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A368" s="7"/>
+      <c r="B368" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C368" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D368" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A369" s="11"/>
-      <c r="B369" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C369" s="13" t="s">
+      <c r="D368" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E368" s="14" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A369" s="7"/>
+      <c r="B369" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C369" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D369" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A370" s="11"/>
-      <c r="B370" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C370" s="13" t="s">
+      <c r="D369" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E369" s="14" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A370" s="7"/>
+      <c r="B370" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C370" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="D370" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A371" s="11"/>
-      <c r="B371" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C371" s="13" t="s">
+      <c r="D370" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E370" s="14" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A371" s="7"/>
+      <c r="B371" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C371" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="D371" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A372" s="11"/>
-      <c r="B372" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C372" s="13" t="s">
+      <c r="D371" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E371" s="14" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A372" s="7"/>
+      <c r="B372" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C372" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D372" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A373" s="11"/>
-      <c r="B373" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C373" s="13" t="s">
+      <c r="D372" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E372" s="14" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A373" s="7"/>
+      <c r="B373" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C373" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D373" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A374" s="11"/>
-      <c r="B374" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C374" s="13" t="s">
+      <c r="D373" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E373" s="14" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A374" s="7"/>
+      <c r="B374" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C374" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D374" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A375" s="11"/>
-      <c r="B375" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C375" s="13" t="s">
+      <c r="D374" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E374" s="14" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A375" s="7"/>
+      <c r="B375" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C375" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D375" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A376" s="11"/>
-      <c r="B376" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C376" s="13" t="s">
+      <c r="D375" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E375" s="14" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A376" s="7"/>
+      <c r="B376" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C376" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="D376" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D376" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E376" s="14" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <v>376</v>
       </c>
-      <c r="B377" s="6">
-        <f t="shared" si="5"/>
+      <c r="B377" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C377" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E377" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A378" s="2">
         <v>377</v>
       </c>
-      <c r="B378" s="6">
-        <f t="shared" si="5"/>
+      <c r="B378" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C378" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E378" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A379" s="2">
         <v>378</v>
       </c>
-      <c r="B379" s="6">
-        <f t="shared" si="5"/>
+      <c r="B379" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C379" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E379" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <v>379</v>
       </c>
-      <c r="B380" s="6">
-        <f t="shared" si="5"/>
+      <c r="B380" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C380" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E380" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <v>380</v>
       </c>
-      <c r="B381" s="6">
-        <f t="shared" si="5"/>
+      <c r="B381" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C381" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E381" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <v>381</v>
       </c>
-      <c r="B382" s="6">
-        <f t="shared" si="5"/>
+      <c r="B382" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C382" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E382" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <v>382</v>
       </c>
-      <c r="B383" s="6">
-        <f t="shared" si="5"/>
+      <c r="B383" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C383" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E383" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <v>383</v>
       </c>
-      <c r="B384" s="6">
-        <f t="shared" si="5"/>
+      <c r="B384" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C384" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E384" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <v>384</v>
       </c>
-      <c r="B385" s="6">
-        <f t="shared" si="5"/>
+      <c r="B385" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C385" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E385" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <v>385</v>
       </c>
-      <c r="B386" s="6">
-        <f t="shared" si="5"/>
+      <c r="B386" s="24">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C386" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E386" s="13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A387" s="2">
         <v>386</v>
       </c>
-      <c r="B387" s="6">
-        <f t="shared" ref="B387:B437" si="6">SEARCH(A387,C387)</f>
+      <c r="B387" s="24">
+        <f t="shared" ref="B387:B437" si="12">SEARCH(A387,C387)</f>
         <v>7</v>
       </c>
       <c r="C387" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A388" s="8"/>
-      <c r="B388" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C388" s="10" t="s">
+      <c r="E387" s="13" t="b">
+        <f t="shared" ref="E387:E437" si="13">ISNUMBER(SEARCH("TBD", D387))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A388" s="5"/>
+      <c r="B388" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C388" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D388" s="10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D388" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E388" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <v>388</v>
       </c>
-      <c r="B389" s="6">
-        <f t="shared" si="6"/>
+      <c r="B389" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C389" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E389" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <v>389</v>
       </c>
-      <c r="B390" s="6">
-        <f t="shared" si="6"/>
+      <c r="B390" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C390" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E390" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <v>390</v>
       </c>
-      <c r="B391" s="6">
-        <f t="shared" si="6"/>
+      <c r="B391" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C391" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E391" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <v>391</v>
       </c>
-      <c r="B392" s="6">
-        <f t="shared" si="6"/>
+      <c r="B392" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C392" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E392" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <v>392</v>
       </c>
-      <c r="B393" s="6">
-        <f t="shared" si="6"/>
+      <c r="B393" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C393" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E393" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <v>393</v>
       </c>
-      <c r="B394" s="6">
-        <f t="shared" si="6"/>
+      <c r="B394" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C394" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E394" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <v>394</v>
       </c>
-      <c r="B395" s="6">
-        <f t="shared" si="6"/>
+      <c r="B395" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C395" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E395" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <v>395</v>
       </c>
-      <c r="B396" s="6">
-        <f t="shared" si="6"/>
+      <c r="B396" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C396" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E396" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <v>396</v>
       </c>
-      <c r="B397" s="6">
-        <f t="shared" si="6"/>
+      <c r="B397" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C397" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E397" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <v>397</v>
       </c>
-      <c r="B398" s="6">
-        <f t="shared" si="6"/>
+      <c r="B398" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C398" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E398" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <v>398</v>
       </c>
-      <c r="B399" s="6">
-        <f t="shared" si="6"/>
+      <c r="B399" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C399" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E399" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <v>399</v>
       </c>
-      <c r="B400" s="6">
-        <f t="shared" si="6"/>
+      <c r="B400" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C400" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E400" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <v>400</v>
       </c>
-      <c r="B401" s="6">
-        <f t="shared" si="6"/>
+      <c r="B401" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C401" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E401" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
         <v>401</v>
       </c>
-      <c r="B402" s="6">
-        <f t="shared" si="6"/>
+      <c r="B402" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C402" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E402" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
         <v>402</v>
       </c>
-      <c r="B403" s="6">
-        <f t="shared" si="6"/>
+      <c r="B403" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C403" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E403" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
         <v>403</v>
       </c>
-      <c r="B404" s="6">
-        <f t="shared" si="6"/>
+      <c r="B404" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C404" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E404" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
         <v>404</v>
       </c>
-      <c r="B405" s="6">
-        <f t="shared" si="6"/>
+      <c r="B405" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C405" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E405" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
         <v>405</v>
       </c>
-      <c r="B406" s="6">
-        <f t="shared" si="6"/>
+      <c r="B406" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C406" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E406" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
         <v>406</v>
       </c>
-      <c r="B407" s="6">
-        <f t="shared" si="6"/>
+      <c r="B407" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C407" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E407" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
         <v>407</v>
       </c>
-      <c r="B408" s="6">
-        <f t="shared" si="6"/>
+      <c r="B408" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C408" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E408" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
         <v>408</v>
       </c>
-      <c r="B409" s="6">
-        <f t="shared" si="6"/>
+      <c r="B409" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C409" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E409" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>409</v>
       </c>
-      <c r="B410" s="6">
-        <f t="shared" si="6"/>
+      <c r="B410" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C410" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A411" s="8"/>
-      <c r="B411" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C411" s="10" t="s">
+      <c r="E410" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A411" s="5"/>
+      <c r="B411" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C411" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D411" s="10" t="s">
+      <c r="D411" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A412" s="8"/>
-      <c r="B412" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C412" s="10" t="s">
+      <c r="E411" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A412" s="5"/>
+      <c r="B412" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C412" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="D412" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A413" s="8"/>
-      <c r="B413" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C413" s="10" t="s">
+      <c r="D412" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E412" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A413" s="5"/>
+      <c r="B413" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C413" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D413" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A414" s="8"/>
-      <c r="B414" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C414" s="10" t="s">
+      <c r="D413" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E413" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A414" s="5"/>
+      <c r="B414" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C414" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D414" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A415" s="8"/>
-      <c r="B415" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C415" s="10" t="s">
+      <c r="D414" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E414" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A415" s="5"/>
+      <c r="B415" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C415" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D415" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A416" s="8"/>
-      <c r="B416" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C416" s="10" t="s">
+      <c r="D415" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E415" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A416" s="5"/>
+      <c r="B416" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C416" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D416" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A417" s="8"/>
-      <c r="B417" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C417" s="10" t="s">
+      <c r="D416" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E416" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A417" s="5"/>
+      <c r="B417" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C417" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D417" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A418" s="8"/>
-      <c r="B418" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C418" s="10" t="s">
+      <c r="D417" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E417" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A418" s="5"/>
+      <c r="B418" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C418" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="D418" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D418" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E418" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A419" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B419" s="6">
-        <f t="shared" si="6"/>
+        <v>446</v>
+      </c>
+      <c r="B419" s="24">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C419" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A420" s="11"/>
-      <c r="B420" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C420" s="13" t="s">
+      <c r="E419" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A420" s="7"/>
+      <c r="B420" s="25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C420" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="D420" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A421" s="11"/>
-      <c r="B421" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C421" s="13" t="s">
+      <c r="D420" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E420" s="14" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A421" s="7"/>
+      <c r="B421" s="25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C421" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D421" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A422" s="11"/>
-      <c r="B422" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C422" s="13" t="s">
+      <c r="D421" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E421" s="14" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A422" s="7"/>
+      <c r="B422" s="25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C422" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="D422" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A423" s="11"/>
-      <c r="B423" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C423" s="13" t="s">
+      <c r="D422" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E422" s="14" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A423" s="7"/>
+      <c r="B423" s="25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C423" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D423" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A424" s="11"/>
-      <c r="B424" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C424" s="13" t="s">
+      <c r="D423" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E423" s="14" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A424" s="7"/>
+      <c r="B424" s="25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C424" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="D424" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A425" s="11"/>
-      <c r="B425" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C425" s="13" t="s">
+      <c r="D424" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E424" s="14" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A425" s="7"/>
+      <c r="B425" s="25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C425" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D425" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A426" s="11"/>
-      <c r="B426" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C426" s="13" t="s">
+      <c r="D425" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E425" s="14" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A426" s="7"/>
+      <c r="B426" s="25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C426" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D426" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A427" s="11"/>
-      <c r="B427" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C427" s="13" t="s">
+      <c r="D426" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E426" s="14" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A427" s="7"/>
+      <c r="B427" s="25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C427" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="D427" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A428" s="11"/>
-      <c r="B428" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C428" s="13" t="s">
+      <c r="D427" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E427" s="14" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A428" s="7"/>
+      <c r="B428" s="25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C428" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D428" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A429" s="11"/>
-      <c r="B429" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C429" s="13" t="s">
+      <c r="D428" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E428" s="14" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A429" s="7"/>
+      <c r="B429" s="25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C429" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D429" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A430" s="11"/>
-      <c r="B430" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C430" s="13" t="s">
+      <c r="D429" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E429" s="14" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A430" s="7"/>
+      <c r="B430" s="25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C430" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D430" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A431" s="8"/>
-      <c r="B431" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C431" s="10" t="s">
+      <c r="D430" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E430" s="14" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A431" s="5"/>
+      <c r="B431" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C431" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D431" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A432" s="8"/>
-      <c r="B432" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C432" s="10" t="s">
+      <c r="D431" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E431" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A432" s="5"/>
+      <c r="B432" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C432" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D432" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A433" s="8"/>
-      <c r="B433" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C433" s="10" t="s">
+      <c r="D432" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E432" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A433" s="5"/>
+      <c r="B433" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C433" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D433" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A434" s="8"/>
-      <c r="B434" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C434" s="10" t="s">
+      <c r="D433" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E433" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A434" s="5"/>
+      <c r="B434" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C434" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="D434" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A435" s="8"/>
-      <c r="B435" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C435" s="10" t="s">
+      <c r="D434" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E434" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A435" s="5"/>
+      <c r="B435" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C435" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D435" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A436" s="8"/>
-      <c r="B436" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C436" s="10" t="s">
+      <c r="D435" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E435" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A436" s="5"/>
+      <c r="B436" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C436" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D436" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A437" s="8"/>
-      <c r="B437" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C437" s="10" t="s">
+      <c r="D436" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E436" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A437" s="5"/>
+      <c r="B437" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C437" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D437" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D437" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E437" s="13" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A439" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="B439" s="7">
+        <v>449</v>
+      </c>
+      <c r="B439" s="27">
         <f>COUNTIF($B$2:$B$437,7)</f>
         <v>331</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A440" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="B440" s="16">
+      <c r="D439" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E439" s="21">
+        <f>COUNTIF($E$2:$E$437,TRUE)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A440" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B440" s="28">
         <f>COUNT($B$2:$B$437)</f>
         <v>436</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A441" s="17"/>
-      <c r="B441" s="18">
+    <row r="441" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A441" s="10"/>
+      <c r="B441" s="29">
+        <f>B439/(B440-E439)</f>
+        <v>0.8254364089775561</v>
+      </c>
+      <c r="C441" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A442" s="11"/>
+      <c r="B442" s="30">
         <f>B439/B440</f>
         <v>0.75917431192660545</v>
       </c>
-      <c r="C441" s="19" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="C442" s="12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B437">
     <cfRule type="iconSet" priority="1">
@@ -7767,5 +9614,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>